--- a/output/SharedHealthSummary/medicationstatement-summary-1.xlsx
+++ b/output/SharedHealthSummary/medicationstatement-summary-1.xlsx
@@ -1310,7 +1310,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-inv-dh-mst-01:The dosage shall at least have text or patient instructions {dosage.text.exists() or dosage.patientInstruction.exists()}</t>
+inv-dh-mst-01:The dosage shall at least have text or patient instructions {MedicationStatement.dosage.text.exists() or MedicationStatement.dosage.patientInstruction.exists()}</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>

--- a/output/SharedHealthSummary/medicationstatement-summary-1.xlsx
+++ b/output/SharedHealthSummary/medicationstatement-summary-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="381">
   <si>
     <t>Path</t>
   </si>
@@ -588,6 +588,10 @@
   </si>
   <si>
     <t>Coded Medication</t>
+  </si>
+  <si>
+    <t>inv-amt-tpuu:AMT TPUU valueset membership required {coding.exists(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPDSF') implies coding.where(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPDSF').code in 'http://hl7.org.au/fhir/ValueSet/amt-tpuu-codes'}
+inv-amt-tpp:AMT TPU valueset membership required {coding.exists(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG') implies coding.where(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').code in 'http://hl7.org.au/fhir/ValueSet/amt-tpp-codes'}inv-amt-tp:AMT TP valueset membership required {coding.exists(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD') implies coding.where(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').code in 'http://hl7.org.au/fhir/ValueSet/amt-tp-codes'}inv-amp-mpuu:AMT MPUU valueset membership required {coding.exists(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF') implies coding.where(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').code in 'http://hl7.org.au/fhir/ValueSet/amt-mpuu-codes'}inv-amt-mpp:AMT MPP valueset membership required {coding.exists(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG') implies coding.where(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').code in 'http://hl7.org.au/fhir/ValueSet/amt-mpp-codes'}inv-amt-mp:AMT MP valueset membership required {coding.exists(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD') implies coding.where(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').code in 'http://hl7.org.au/fhir/ValueSet/amt-mp-codes'}inv-amt-ctpp:AMT CTPP valueset membership required {coding.exists(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC') implies coding.where(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').code in 'http://hl7.org.au/fhir/ValueSet/amt-ctpp-codes'}</t>
   </si>
   <si>
     <t>MedicationStatement.medicationCodeableConcept.id</t>
@@ -3724,7 +3728,7 @@
         <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>174</v>
@@ -3741,7 +3745,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3764,13 +3768,13 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3821,7 +3825,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3839,7 +3843,7 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -3850,7 +3854,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3876,10 +3880,10 @@
         <v>96</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>118</v>
@@ -3923,7 +3927,7 @@
         <v>99</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>40</v>
@@ -3932,7 +3936,7 @@
         <v>100</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3950,7 +3954,7 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -3961,7 +3965,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3984,19 +3988,19 @@
         <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -4033,7 +4037,7 @@
         <v>40</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
@@ -4043,7 +4047,7 @@
         <v>100</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4061,21 +4065,21 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>40</v>
@@ -4097,19 +4101,19 @@
         <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4138,7 +4142,7 @@
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -4156,7 +4160,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4174,21 +4178,21 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>40</v>
@@ -4210,19 +4214,19 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -4251,7 +4255,7 @@
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
@@ -4269,7 +4273,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4287,21 +4291,21 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>40</v>
@@ -4323,19 +4327,19 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4364,7 +4368,7 @@
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>40</v>
@@ -4382,7 +4386,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4400,18 +4404,18 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4434,13 +4438,13 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4491,7 +4495,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4509,7 +4513,7 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -4520,7 +4524,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4591,7 +4595,7 @@
         <v>99</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>40</v>
@@ -4600,7 +4604,7 @@
         <v>100</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4629,10 +4633,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>40</v>
@@ -4654,13 +4658,13 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4711,7 +4715,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4740,7 +4744,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4763,13 +4767,13 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4820,7 +4824,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4838,7 +4842,7 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -4849,7 +4853,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4875,10 +4879,10 @@
         <v>96</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>118</v>
@@ -4922,7 +4926,7 @@
         <v>99</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>40</v>
@@ -4931,7 +4935,7 @@
         <v>100</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4949,7 +4953,7 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
@@ -4960,7 +4964,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4986,13 +4990,13 @@
         <v>64</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5000,7 +5004,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>40</v>
@@ -5042,7 +5046,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>51</v>
@@ -5071,10 +5075,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>40</v>
@@ -5096,13 +5100,13 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5111,7 +5115,7 @@
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>40</v>
@@ -5132,10 +5136,10 @@
         <v>151</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -5153,7 +5157,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5182,7 +5186,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5208,16 +5212,16 @@
         <v>64</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -5266,7 +5270,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5284,18 +5288,18 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5318,16 +5322,16 @@
         <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5377,7 +5381,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5395,18 +5399,18 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5432,14 +5436,14 @@
         <v>70</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5488,7 +5492,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5506,18 +5510,18 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5540,17 +5544,17 @@
         <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5599,7 +5603,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5617,18 +5621,18 @@
         <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5651,19 +5655,19 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5712,7 +5716,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5730,21 +5734,21 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>40</v>
@@ -5766,19 +5770,19 @@
         <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -5807,7 +5811,7 @@
       </c>
       <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
@@ -5825,7 +5829,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5843,18 +5847,18 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5877,19 +5881,19 @@
         <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -5938,7 +5942,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5956,21 +5960,21 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>40</v>
@@ -5992,10 +5996,10 @@
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>168</v>
@@ -6080,7 +6084,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6103,16 +6107,16 @@
         <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6162,7 +6166,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6177,13 +6181,13 @@
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
@@ -6191,7 +6195,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6214,13 +6218,13 @@
         <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6271,7 +6275,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6289,10 +6293,10 @@
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>40</v>
@@ -6300,7 +6304,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6323,13 +6327,13 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6380,7 +6384,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6398,10 +6402,10 @@
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -6409,7 +6413,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6432,13 +6436,13 @@
         <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6489,7 +6493,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>51</v>
@@ -6504,21 +6508,21 @@
         <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6541,16 +6545,16 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6600,7 +6604,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6618,7 +6622,7 @@
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
@@ -6629,7 +6633,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6655,13 +6659,13 @@
         <v>70</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6690,10 +6694,10 @@
         <v>151</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>40</v>
@@ -6711,7 +6715,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>51</v>
@@ -6726,10 +6730,10 @@
         <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
@@ -6740,7 +6744,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6766,10 +6770,10 @@
         <v>158</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6799,10 +6803,10 @@
         <v>170</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>40</v>
@@ -6820,7 +6824,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6829,7 +6833,7 @@
         <v>42</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>40</v>
@@ -6838,7 +6842,7 @@
         <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
@@ -6849,7 +6853,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6872,13 +6876,13 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6929,7 +6933,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6947,7 +6951,7 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -6958,7 +6962,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6984,10 +6988,10 @@
         <v>96</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>118</v>
@@ -7031,7 +7035,7 @@
         <v>99</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>40</v>
@@ -7040,7 +7044,7 @@
         <v>100</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7058,7 +7062,7 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
@@ -7069,7 +7073,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7092,19 +7096,19 @@
         <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
@@ -7141,7 +7145,7 @@
         <v>40</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AB52" s="2"/>
       <c r="AC52" t="s" s="2">
@@ -7151,7 +7155,7 @@
         <v>100</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7169,21 +7173,21 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>40</v>
@@ -7205,19 +7209,19 @@
         <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>40</v>
@@ -7246,7 +7250,7 @@
       </c>
       <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>40</v>
@@ -7264,7 +7268,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7282,18 +7286,18 @@
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7316,19 +7320,19 @@
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7377,7 +7381,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7395,18 +7399,18 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7432,13 +7436,13 @@
         <v>158</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7467,10 +7471,10 @@
         <v>170</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>40</v>
@@ -7488,7 +7492,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7503,13 +7507,13 @@
         <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>40</v>
@@ -7517,7 +7521,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7540,13 +7544,13 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7597,7 +7601,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7615,7 +7619,7 @@
         <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
@@ -7626,7 +7630,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7652,10 +7656,10 @@
         <v>96</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>118</v>
@@ -7699,7 +7703,7 @@
         <v>99</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>40</v>
@@ -7708,7 +7712,7 @@
         <v>100</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7726,7 +7730,7 @@
         <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
@@ -7737,7 +7741,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7760,19 +7764,19 @@
         <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
@@ -7809,7 +7813,7 @@
         <v>40</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AB58" s="2"/>
       <c r="AC58" t="s" s="2">
@@ -7819,7 +7823,7 @@
         <v>100</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7837,21 +7841,21 @@
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>40</v>
@@ -7873,19 +7877,19 @@
         <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
@@ -7914,7 +7918,7 @@
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>40</v>
@@ -7932,7 +7936,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7950,18 +7954,18 @@
         <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7984,19 +7988,19 @@
         <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -8045,7 +8049,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8063,18 +8067,18 @@
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8097,16 +8101,16 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8156,7 +8160,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8171,13 +8175,13 @@
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>40</v>
@@ -8185,7 +8189,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8208,13 +8212,13 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8265,7 +8269,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8280,10 +8284,10 @@
         <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
@@ -8294,7 +8298,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8317,16 +8321,16 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8376,7 +8380,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8388,13 +8392,13 @@
         <v>106</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>

--- a/output/SharedHealthSummary/medicationstatement-summary-1.xlsx
+++ b/output/SharedHealthSummary/medicationstatement-summary-1.xlsx
@@ -188,7 +188,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -207,7 +207,7 @@
     <t>MedicationStatement.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -223,7 +223,7 @@
     <t>MedicationStatement.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -243,7 +243,7 @@
     <t>MedicationStatement.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -275,7 +275,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -305,7 +305,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -327,7 +327,7 @@
     <t>MedicationStatement.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -350,7 +350,7 @@
     <t>longTerm</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/medication-long-term]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/medication-long-term}
 </t>
   </si>
   <si>
@@ -371,7 +371,7 @@
     <t>brandName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/medication-brand-name]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/medication-brand-name}
 </t>
   </si>
   <si>
@@ -381,7 +381,7 @@
     <t>genericName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/medication-generic-name]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/medication-generic-name}
 </t>
   </si>
   <si>
@@ -410,7 +410,7 @@
     <t>MedicationStatement.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -432,7 +432,7 @@
     <t>MedicationStatement.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/CarePlan], CanonicalType[http://hl7.org/fhir/StructureDefinition/ProcedureRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/ReferralRequest]]}
+    <t xml:space="preserve">Reference(MedicationRequest|CarePlan|ProcedureRequest|ReferralRequest)
 </t>
   </si>
   <si>
@@ -454,7 +454,7 @@
     <t>MedicationStatement.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationAdministration], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationDispense], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationStatement], CanonicalType[http://hl7.org/fhir/StructureDefinition/Procedure], CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation]]}
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Observation)
 </t>
   </si>
   <si>
@@ -476,7 +476,7 @@
     <t>MedicationStatement.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter], CanonicalType[http://hl7.org/fhir/StructureDefinition/EpisodeOfCare]]}
+    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
 </t>
   </si>
   <si>
@@ -526,7 +526,7 @@
     <t>MedicationStatement.category</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -590,14 +590,14 @@
     <t>Coded Medication</t>
   </si>
   <si>
-    <t>inv-amt-tpuu:AMT TPUU valueset membership required {coding.exists(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPDSF') implies coding.where(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPDSF').code in 'http://hl7.org.au/fhir/ValueSet/amt-tpuu-codes'}
-inv-amt-tpp:AMT TPU valueset membership required {coding.exists(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG') implies coding.where(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').code in 'http://hl7.org.au/fhir/ValueSet/amt-tpp-codes'}inv-amt-tp:AMT TP valueset membership required {coding.exists(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD') implies coding.where(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').code in 'http://hl7.org.au/fhir/ValueSet/amt-tp-codes'}inv-amp-mpuu:AMT MPUU valueset membership required {coding.exists(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF') implies coding.where(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').code in 'http://hl7.org.au/fhir/ValueSet/amt-mpuu-codes'}inv-amt-mpp:AMT MPP valueset membership required {coding.exists(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG') implies coding.where(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').code in 'http://hl7.org.au/fhir/ValueSet/amt-mpp-codes'}inv-amt-mp:AMT MP valueset membership required {coding.exists(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD') implies coding.where(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').code in 'http://hl7.org.au/fhir/ValueSet/amt-mp-codes'}inv-amt-ctpp:AMT CTPP valueset membership required {coding.exists(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC') implies coding.where(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').code in 'http://hl7.org.au/fhir/ValueSet/amt-ctpp-codes'}</t>
+    <t>inv-amt-tpuu:AMT TPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpuu-codes'}
+inv-amt-tpp:AMT TPU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpp-codes'}inv-amt-tp:AMT TP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tp-codes'}inv-amp-mpuu:AMT MPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpuu-codes'}inv-amt-mpp:AMT MPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpp-codes'}inv-amt-mp:AMT MP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mp-codes'}inv-amt-ctpp:AMT CTPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-ctpp-codes'}</t>
   </si>
   <si>
     <t>MedicationStatement.medicationCodeableConcept.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -631,7 +631,7 @@
     <t>MedicationStatement.medicationCodeableConcept.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -702,7 +702,7 @@
     <t>medicationClass</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/medication-type]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/medication-type}
 </t>
   </si>
   <si>
@@ -730,7 +730,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/fhir/StructureDefinition/medication-type"/&gt;</t>
+    <t>http://hl7.org.au/fhir/StructureDefinition/medication-type</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -854,7 +854,7 @@
     <t>MedicationStatement.medicationCodeableConcept.coding.userSelected</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -918,7 +918,7 @@
     <t>medicationReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/au-medication]]}
+    <t xml:space="preserve">Reference(http://hl7.org.au/fhir/StructureDefinition/au-medication)
 </t>
   </si>
   <si>
@@ -928,8 +928,8 @@
     <t>MedicationStatement.effective[x]</t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-Period {[]} {[]}</t>
+    <t>dateTime
+Period</t>
   </si>
   <si>
     <t>The date/time or interval when the medication was taken</t>
@@ -953,7 +953,7 @@
     <t>MedicationStatement.dateAsserted</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -972,7 +972,7 @@
     <t>MedicationStatement.informationSource</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1)
 </t>
   </si>
   <si>
@@ -991,7 +991,7 @@
     <t>MedicationStatement.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1)
 </t>
   </si>
   <si>
@@ -1016,7 +1016,7 @@
     <t>MedicationStatement.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -1157,7 +1157,7 @@
     <t>MedicationStatement.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Condition], CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation]]}
+    <t xml:space="preserve">Reference(Condition|Observation)
 </t>
   </si>
   <si>
@@ -1179,7 +1179,7 @@
     <t>MedicationStatement.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {[]} {[]}
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
@@ -1198,7 +1198,7 @@
     <t>MedicationStatement.dosage</t>
   </si>
   <si>
-    <t xml:space="preserve">Dosage {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/au-dosage]]} {[]}
+    <t xml:space="preserve">Dosage {http://hl7.org.au/fhir/StructureDefinition/au-dosage}
 </t>
   </si>
   <si>
@@ -1268,67 +1268,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1364,7 +1364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN63"/>
+  <dimension ref="A1:AM63"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>

--- a/output/SharedHealthSummary/medicationstatement-summary-1.xlsx
+++ b/output/SharedHealthSummary/medicationstatement-summary-1.xlsx
@@ -188,7 +188,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">id {[]} {[]}
 </t>
   </si>
   <si>
@@ -207,7 +207,7 @@
     <t>MedicationStatement.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta
+    <t xml:space="preserve">Meta {[]} {[]}
 </t>
   </si>
   <si>
@@ -223,7 +223,7 @@
     <t>MedicationStatement.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
@@ -243,7 +243,7 @@
     <t>MedicationStatement.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code
+    <t xml:space="preserve">code {[]} {[]}
 </t>
   </si>
   <si>
@@ -275,7 +275,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative
+    <t xml:space="preserve">Narrative {[]} {[]}
 </t>
   </si>
   <si>
@@ -305,7 +305,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource
+    <t xml:space="preserve">Resource {[]} {[]}
 </t>
   </si>
   <si>
@@ -327,7 +327,7 @@
     <t>MedicationStatement.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t xml:space="preserve">Extension {[]} {[]}
 </t>
   </si>
   <si>
@@ -350,7 +350,7 @@
     <t>longTerm</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/medication-long-term}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/medication-long-term]]} {[]}
 </t>
   </si>
   <si>
@@ -371,7 +371,7 @@
     <t>brandName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/medication-brand-name}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/medication-brand-name]]} {[]}
 </t>
   </si>
   <si>
@@ -381,7 +381,7 @@
     <t>genericName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/medication-generic-name}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/medication-generic-name]]} {[]}
 </t>
   </si>
   <si>
@@ -410,7 +410,7 @@
     <t>MedicationStatement.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {[]} {[]}
 </t>
   </si>
   <si>
@@ -432,7 +432,7 @@
     <t>MedicationStatement.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest|CarePlan|ProcedureRequest|ReferralRequest)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/CarePlan], CanonicalType[http://hl7.org/fhir/StructureDefinition/ProcedureRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/ReferralRequest]]}
 </t>
   </si>
   <si>
@@ -454,7 +454,7 @@
     <t>MedicationStatement.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Observation)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationAdministration], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationDispense], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationStatement], CanonicalType[http://hl7.org/fhir/StructureDefinition/Procedure], CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation]]}
 </t>
   </si>
   <si>
@@ -476,7 +476,7 @@
     <t>MedicationStatement.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter], CanonicalType[http://hl7.org/fhir/StructureDefinition/EpisodeOfCare]]}
 </t>
   </si>
   <si>
@@ -526,7 +526,7 @@
     <t>MedicationStatement.category</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
 </t>
   </si>
   <si>
@@ -591,13 +591,13 @@
   </si>
   <si>
     <t>inv-amt-tpuu:AMT TPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpuu-codes'}
-inv-amt-tpp:AMT TPU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpp-codes'}inv-amt-tp:AMT TP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tp-codes'}inv-amp-mpuu:AMT MPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpuu-codes'}inv-amt-mpp:AMT MPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpp-codes'}inv-amt-mp:AMT MP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mp-codes'}inv-amt-ctpp:AMT CTPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-ctpp-codes'}</t>
+inv-amt-tpp:AMT TPU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpp-codes'}inv-amt-tp:AMT TP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tp-codes'}inv-amt-mpuu:AMT MPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpuu-codes'}inv-amt-mpp:AMT MPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpp-codes'}inv-amt-mp:AMT MP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mp-codes'}inv-amt-ctpp:AMT CTPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-ctpp-codes'}</t>
   </si>
   <si>
     <t>MedicationStatement.medicationCodeableConcept.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
@@ -631,7 +631,7 @@
     <t>MedicationStatement.medicationCodeableConcept.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
+    <t xml:space="preserve">Coding {[]} {[]}
 </t>
   </si>
   <si>
@@ -702,7 +702,7 @@
     <t>medicationClass</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/medication-type}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/medication-type]]} {[]}
 </t>
   </si>
   <si>
@@ -730,7 +730,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org.au/fhir/StructureDefinition/medication-type</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/fhir/StructureDefinition/medication-type"/&gt;</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -854,7 +854,7 @@
     <t>MedicationStatement.medicationCodeableConcept.coding.userSelected</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
+    <t xml:space="preserve">boolean {[]} {[]}
 </t>
   </si>
   <si>
@@ -918,7 +918,7 @@
     <t>medicationReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org.au/fhir/StructureDefinition/au-medication)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/au-medication]]}
 </t>
   </si>
   <si>
@@ -928,8 +928,8 @@
     <t>MedicationStatement.effective[x]</t>
   </si>
   <si>
-    <t>dateTime
-Period</t>
+    <t>dateTime {[]} {[]}
+Period {[]} {[]}</t>
   </si>
   <si>
     <t>The date/time or interval when the medication was taken</t>
@@ -953,7 +953,7 @@
     <t>MedicationStatement.dateAsserted</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
+    <t xml:space="preserve">dateTime {[]} {[]}
 </t>
   </si>
   <si>
@@ -972,7 +972,7 @@
     <t>MedicationStatement.informationSource</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1]]}
 </t>
   </si>
   <si>
@@ -991,7 +991,7 @@
     <t>MedicationStatement.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1]]}
 </t>
   </si>
   <si>
@@ -1016,7 +1016,7 @@
     <t>MedicationStatement.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
 </t>
   </si>
   <si>
@@ -1157,7 +1157,7 @@
     <t>MedicationStatement.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Condition], CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation]]}
 </t>
   </si>
   <si>
@@ -1179,7 +1179,7 @@
     <t>MedicationStatement.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation
+    <t xml:space="preserve">Annotation {[]} {[]}
 </t>
   </si>
   <si>
@@ -1198,7 +1198,7 @@
     <t>MedicationStatement.dosage</t>
   </si>
   <si>
-    <t xml:space="preserve">Dosage {http://hl7.org.au/fhir/StructureDefinition/au-dosage}
+    <t xml:space="preserve">Dosage {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/au-dosage]]} {[]}
 </t>
   </si>
   <si>
@@ -1268,67 +1268,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
   </borders>
@@ -1364,7 +1364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM63"/>
+  <dimension ref="A1:AN63"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>

--- a/output/SharedHealthSummary/medicationstatement-summary-1.xlsx
+++ b/output/SharedHealthSummary/medicationstatement-summary-1.xlsx
@@ -188,7 +188,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -207,7 +207,7 @@
     <t>MedicationStatement.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -223,7 +223,7 @@
     <t>MedicationStatement.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -243,7 +243,7 @@
     <t>MedicationStatement.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -275,7 +275,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -305,7 +305,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -327,7 +327,7 @@
     <t>MedicationStatement.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -350,7 +350,7 @@
     <t>longTerm</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/medication-long-term]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/medication-long-term}
 </t>
   </si>
   <si>
@@ -371,7 +371,7 @@
     <t>brandName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/medication-brand-name]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/medication-brand-name}
 </t>
   </si>
   <si>
@@ -381,7 +381,7 @@
     <t>genericName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/medication-generic-name]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/medication-generic-name}
 </t>
   </si>
   <si>
@@ -410,7 +410,7 @@
     <t>MedicationStatement.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -432,7 +432,7 @@
     <t>MedicationStatement.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/CarePlan], CanonicalType[http://hl7.org/fhir/StructureDefinition/ProcedureRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/ReferralRequest]]}
+    <t xml:space="preserve">Reference(MedicationRequest|CarePlan|ProcedureRequest|ReferralRequest)
 </t>
   </si>
   <si>
@@ -454,7 +454,7 @@
     <t>MedicationStatement.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationAdministration], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationDispense], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationStatement], CanonicalType[http://hl7.org/fhir/StructureDefinition/Procedure], CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation]]}
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Observation)
 </t>
   </si>
   <si>
@@ -476,7 +476,7 @@
     <t>MedicationStatement.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter], CanonicalType[http://hl7.org/fhir/StructureDefinition/EpisodeOfCare]]}
+    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
 </t>
   </si>
   <si>
@@ -526,7 +526,7 @@
     <t>MedicationStatement.category</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -597,7 +597,7 @@
     <t>MedicationStatement.medicationCodeableConcept.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -631,7 +631,7 @@
     <t>MedicationStatement.medicationCodeableConcept.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -702,7 +702,7 @@
     <t>medicationClass</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/medication-type]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/medication-type}
 </t>
   </si>
   <si>
@@ -730,7 +730,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/fhir/StructureDefinition/medication-type"/&gt;</t>
+    <t>http://hl7.org.au/fhir/StructureDefinition/medication-type</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -854,7 +854,7 @@
     <t>MedicationStatement.medicationCodeableConcept.coding.userSelected</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -918,7 +918,7 @@
     <t>medicationReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/au-medication]]}
+    <t xml:space="preserve">Reference(http://hl7.org.au/fhir/StructureDefinition/au-medication)
 </t>
   </si>
   <si>
@@ -928,8 +928,8 @@
     <t>MedicationStatement.effective[x]</t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-Period {[]} {[]}</t>
+    <t>dateTime
+Period</t>
   </si>
   <si>
     <t>The date/time or interval when the medication was taken</t>
@@ -953,7 +953,7 @@
     <t>MedicationStatement.dateAsserted</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -972,7 +972,7 @@
     <t>MedicationStatement.informationSource</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1)
 </t>
   </si>
   <si>
@@ -991,7 +991,7 @@
     <t>MedicationStatement.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1)
 </t>
   </si>
   <si>
@@ -1016,7 +1016,7 @@
     <t>MedicationStatement.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -1157,7 +1157,7 @@
     <t>MedicationStatement.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Condition], CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation]]}
+    <t xml:space="preserve">Reference(Condition|Observation)
 </t>
   </si>
   <si>
@@ -1179,7 +1179,7 @@
     <t>MedicationStatement.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {[]} {[]}
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
@@ -1198,7 +1198,7 @@
     <t>MedicationStatement.dosage</t>
   </si>
   <si>
-    <t xml:space="preserve">Dosage {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/au-dosage]]} {[]}
+    <t xml:space="preserve">Dosage {http://hl7.org.au/fhir/StructureDefinition/au-dosage}
 </t>
   </si>
   <si>
@@ -1268,67 +1268,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1364,7 +1364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN63"/>
+  <dimension ref="A1:AM63"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>

--- a/output/SharedHealthSummary/medicationstatement-summary-1.xlsx
+++ b/output/SharedHealthSummary/medicationstatement-summary-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$111</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="519">
   <si>
     <t>Path</t>
   </si>
@@ -378,6 +378,9 @@
     <t>Medication Brand Name</t>
   </si>
   <si>
+    <t>The brand medication text name for an associated medication, this may be supplied if a coded brand name is not available for medicationCodeableConcept but the brand name is needed.</t>
+  </si>
+  <si>
     <t>genericName</t>
   </si>
   <si>
@@ -386,6 +389,9 @@
   </si>
   <si>
     <t>Medication Generic Drug Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The generic medication text name for an associated medication, this may not be the same as the medicationCodeableConcept medication (prescribed, dispensed or stated) but may be used to provide an additional or equivalent drug name that is a generic medication concept. </t>
   </si>
   <si>
     <t>MedicationStatement.modifierExtension</t>
@@ -1216,6 +1222,422 @@
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer
+</t>
+  </si>
+  <si>
+    <t>The order of the dosage instructions</t>
+  </si>
+  <si>
+    <t>Indicates the order in which the dosage instructions should be applied or interpreted.</t>
+  </si>
+  <si>
+    <t>If the sequence number of multiple Dosages is the same, then it is implied that the instructions are to be treated as concurrent.  If the sequence number is different, then the Dosages are intended to be sequential.</t>
+  </si>
+  <si>
+    <t>Dosage.sequence</t>
+  </si>
+  <si>
+    <t>.text</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.text</t>
+  </si>
+  <si>
+    <t>Free text dosage instructions e.g. SIG</t>
+  </si>
+  <si>
+    <t>Free text dosage instructions e.g. SIG.</t>
+  </si>
+  <si>
+    <t>Free text dosage instructions can be used for cases where the instructions are too complex to code.  The content of this attribute does not include the name or description of the medication. When coded instructions are present, the free text instructions may still be present for display to humans taking or administering the medication. It is expected that the text instructions will always be populated.  If the dosage.timing attribute is also populated, then the dosage.text should reflect the same information as the timing.</t>
+  </si>
+  <si>
+    <t>Dosage.text</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.additionalInstruction</t>
+  </si>
+  <si>
+    <t>Supplemental instruction - e.g. "with meals"</t>
+  </si>
+  <si>
+    <t>Supplemental instruction - e.g. "with meals".</t>
+  </si>
+  <si>
+    <t>Additional instruction such as "Swallow with plenty of water" which may or may not be coded.</t>
+  </si>
+  <si>
+    <t>A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:coding.system}
+</t>
+  </si>
+  <si>
+    <t>Dosage.additionalInstruction</t>
+  </si>
+  <si>
+    <t>snomedAdditionalInstruction</t>
+  </si>
+  <si>
+    <t>SNOMED CT Additional Instruction</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.patientInstruction</t>
+  </si>
+  <si>
+    <t>Patient or consumer oriented instructions</t>
+  </si>
+  <si>
+    <t>Instructions in terms that are understood by the patient or consumer.</t>
+  </si>
+  <si>
+    <t>Dosage.patientInstruction</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.timing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timing
+</t>
+  </si>
+  <si>
+    <t>When medication should be administered</t>
+  </si>
+  <si>
+    <t>When medication should be administered.</t>
+  </si>
+  <si>
+    <t>This attribute may not always be populated while the Dosage.text is expected to be populated.  If both are populated, then the Dosage.text should reflect the content of the Dosage.timing.</t>
+  </si>
+  <si>
+    <t>The timing schedule for giving the medication to the patient. The Schedule data type allows many different expressions. For example: "Every 8 hours"; "Three times a day"; "1/2 an hour before breakfast for 10 days from 23-Dec 2011:"; "15 Oct 2013, 17 Oct 2013 and 1 Nov 2013".  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
+  </si>
+  <si>
+    <t>Dosage.timing</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeeded[x]</t>
+  </si>
+  <si>
+    <t>boolean
+CodeableConcept</t>
+  </si>
+  <si>
+    <t>Take "as needed" (for x)</t>
+  </si>
+  <si>
+    <t>Indicates whether the Medication is only taken when needed within a specific dosing schedule (Boolean option), or it indicates the precondition for taking the Medication (CodeableConcept).</t>
+  </si>
+  <si>
+    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
+  </si>
+  <si>
+    <t>A coded concept identifying the precondition that should be met or evaluated prior to consuming or administering a medication dose.  For example "pain", "30 minutes prior to sexual intercourse", "on flare-up" etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
+  </si>
+  <si>
+    <t>Dosage.asNeeded[x]</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=PRCN].target[classCode=OBS, moodCode=EVN, code="as needed"].value=boolean or codable concept</t>
+  </si>
+  <si>
+    <t>asNeededCoding</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeeded[x].id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeeded[x].extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeededCodeableConcept</t>
+  </si>
+  <si>
+    <t>Coded Reason For Take "as needed"</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeededCodeableConcept.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeededCodeableConcept.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeededCodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>snomedFinding</t>
+  </si>
+  <si>
+    <t>Clinical Finding (SNOMED CT)</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/clinical-finding-1</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeededCodeableConcept.text</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.site</t>
+  </si>
+  <si>
+    <t>Body site to administer to</t>
+  </si>
+  <si>
+    <t>Body site to administer to.</t>
+  </si>
+  <si>
+    <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [body-site-instance](http://hl7.org/fhir/STU3/extension-body-site-instance.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
+  </si>
+  <si>
+    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
+  </si>
+  <si>
+    <t>Dosage.site</t>
+  </si>
+  <si>
+    <t>.approachSiteCode</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.site.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.site.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.site.coding</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/body-site-1</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.site.text</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route</t>
+  </si>
+  <si>
+    <t>How drug should enter body</t>
+  </si>
+  <si>
+    <t>How drug should enter body.</t>
+  </si>
+  <si>
+    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+  </si>
+  <si>
+    <t>Dosage.route</t>
+  </si>
+  <si>
+    <t>.routeCode</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route.coding</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route.text</t>
+  </si>
+  <si>
+    <t>snomedRoute</t>
+  </si>
+  <si>
+    <t>Route of Administration (SNOMED CT)</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/route-of-administration-1</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.method</t>
+  </si>
+  <si>
+    <t>Technique for administering medication</t>
+  </si>
+  <si>
+    <t>Technique for administering medication.</t>
+  </si>
+  <si>
+    <t>Terminologies used often pre-coordinate this term with the route and or form of administration.</t>
+  </si>
+  <si>
+    <t>A coded value indicating the method by which the medication is introduced into or onto the body. Most commonly used for injections.  For examples, Slow Push; Deep IV.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the technique by which the medicine is administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
+  </si>
+  <si>
+    <t>Dosage.method</t>
+  </si>
+  <si>
+    <t>.doseQuantity</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.method.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.method.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.method.coding</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.method.text</t>
+  </si>
+  <si>
+    <t>snomedMethod</t>
+  </si>
+  <si>
+    <t>SNOMED CT Administration Method</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.dose[x]</t>
+  </si>
+  <si>
+    <t>Range
+Quantity {SimpleQuantity}</t>
+  </si>
+  <si>
+    <t>Amount of medication per dose</t>
+  </si>
+  <si>
+    <t>Amount of medication per dose.</t>
+  </si>
+  <si>
+    <t>Note that this specifies the quantity of the specified medication, not the quantity for each active ingredient(s). Each ingredient amount can be communicated in the Medication resource. For example, if one wants to communicate that a tablet was 375 mg, where the dose was one tablet, you can use the Medication resource to document that the tablet was comprised of 375 mg of drug XYZ. Alternatively if the dose was 375 mg, then you may only need to use the Medication resource to indicate this was a tablet. If the example were an IV such as dopamine and you wanted to communicate that 400mg of dopamine was mixed in 500 ml of some IV solution, then this would all be communicated in the Medication resource. If the administration is not intended to be instantaneous (rate is present or timing has a duration), this can be specified to convey the total amount to be administered over the period of time as indicated by the schedule e.g. 500 ml in dose, with timing used to convey that this should be done over 4 hours.</t>
+  </si>
+  <si>
+    <t>The amount of therapeutic or other substance given at one administration event.</t>
+  </si>
+  <si>
+    <t>Dosage.dose[x]</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.maxDosePerPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio
+</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per unit of time</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per unit of time.</t>
+  </si>
+  <si>
+    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example "2 tablets every 4 hours to a maximum of 8/day".</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerPeriod</t>
+  </si>
+  <si>
+    <t>.maxDoseQuantity</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.maxDosePerAdministration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per administration</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per administration.</t>
+  </si>
+  <si>
+    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example, a body surface area related dose with a maximum amount, such as 1.5 mg/m2 (maximum 2 mg) IV over 5 – 10 minutes would have doseQuantity of 1.5 mg/m2 and maxDosePerAdministration of 2 mg.</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerAdministration</t>
+  </si>
+  <si>
+    <t>not supported</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.maxDosePerLifetime</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per lifetime of the patient</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per lifetime of the patient.</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerLifetime</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.rate[x]</t>
+  </si>
+  <si>
+    <t>Ratio
+RangeQuantity {SimpleQuantity}</t>
+  </si>
+  <si>
+    <t>Amount of medication per unit of time</t>
+  </si>
+  <si>
+    <t>Amount of medication per unit of time.</t>
+  </si>
+  <si>
+    <t>It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.</t>
+  </si>
+  <si>
+    <t>Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
+  </si>
+  <si>
+    <t>Dosage.rate[x]</t>
+  </si>
+  <si>
+    <t>.rateQuantity</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM63"/>
+  <dimension ref="A1:AM111"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1374,7 +1796,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="74.31640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.43359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.14453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1396,10 +1818,10 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="120.0234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="192.3984375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="74.1171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.921875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
@@ -2559,7 +2981,7 @@
         <v>110</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2642,7 +3064,7 @@
         <v>95</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>40</v>
@@ -2664,13 +3086,13 @@
         <v>40</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2750,11 +3172,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2776,13 +3198,13 @@
         <v>96</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2832,7 +3254,7 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -2861,7 +3283,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2884,13 +3306,13 @@
         <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2941,7 +3363,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2956,13 +3378,13 @@
         <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>40</v>
@@ -2970,7 +3392,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2993,17 +3415,17 @@
         <v>52</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -3052,7 +3474,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -3067,10 +3489,10 @@
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -3081,7 +3503,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3104,17 +3526,17 @@
         <v>52</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -3163,7 +3585,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3178,10 +3600,10 @@
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>40</v>
@@ -3192,7 +3614,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3215,13 +3637,13 @@
         <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3272,7 +3694,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3287,10 +3709,10 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
@@ -3301,7 +3723,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3327,13 +3749,13 @@
         <v>70</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3359,13 +3781,13 @@
         <v>40</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>40</v>
@@ -3383,7 +3805,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>51</v>
@@ -3398,13 +3820,13 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>40</v>
@@ -3412,7 +3834,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3435,13 +3857,13 @@
         <v>52</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3468,13 +3890,13 @@
         <v>40</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>40</v>
@@ -3492,7 +3914,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3510,10 +3932,10 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>40</v>
@@ -3521,7 +3943,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3544,16 +3966,16 @@
         <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3579,13 +4001,13 @@
         <v>40</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>40</v>
@@ -3603,7 +4025,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>51</v>
@@ -3618,13 +4040,13 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
@@ -3632,10 +4054,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>40</v>
@@ -3657,16 +4079,16 @@
         <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3692,13 +4114,13 @@
         <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>40</v>
@@ -3716,7 +4138,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>51</v>
@@ -3728,16 +4150,16 @@
         <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
@@ -3745,7 +4167,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3768,13 +4190,13 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3825,7 +4247,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3843,7 +4265,7 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -3854,11 +4276,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3880,13 +4302,13 @@
         <v>96</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3927,7 +4349,7 @@
         <v>99</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>40</v>
@@ -3936,7 +4358,7 @@
         <v>100</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3954,7 +4376,7 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -3965,7 +4387,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3988,19 +4410,19 @@
         <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -4037,7 +4459,7 @@
         <v>40</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
@@ -4047,7 +4469,7 @@
         <v>100</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4065,21 +4487,21 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>40</v>
@@ -4101,19 +4523,19 @@
         <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4138,11 +4560,11 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -4160,7 +4582,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4178,21 +4600,21 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>40</v>
@@ -4214,19 +4636,19 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -4251,11 +4673,11 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
@@ -4273,7 +4695,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4291,21 +4713,21 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>40</v>
@@ -4327,19 +4749,19 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4364,11 +4786,11 @@
         <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>40</v>
@@ -4386,7 +4808,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4404,18 +4826,18 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4438,13 +4860,13 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4495,7 +4917,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4513,7 +4935,7 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -4524,7 +4946,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4595,7 +5017,7 @@
         <v>99</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>40</v>
@@ -4604,7 +5026,7 @@
         <v>100</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4633,10 +5055,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>40</v>
@@ -4658,13 +5080,13 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4715,7 +5137,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4744,7 +5166,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4767,13 +5189,13 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4824,7 +5246,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4842,7 +5264,7 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -4853,11 +5275,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4879,13 +5301,13 @@
         <v>96</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4926,7 +5348,7 @@
         <v>99</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>40</v>
@@ -4935,7 +5357,7 @@
         <v>100</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4953,7 +5375,7 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
@@ -4964,7 +5386,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4990,13 +5412,13 @@
         <v>64</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5004,7 +5426,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>40</v>
@@ -5046,7 +5468,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>51</v>
@@ -5075,10 +5497,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>40</v>
@@ -5100,13 +5522,13 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5115,7 +5537,7 @@
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>40</v>
@@ -5133,13 +5555,13 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -5157,7 +5579,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5186,7 +5608,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5212,16 +5634,16 @@
         <v>64</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -5270,7 +5692,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5288,18 +5710,18 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5322,16 +5744,16 @@
         <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5381,7 +5803,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5399,18 +5821,18 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5436,14 +5858,14 @@
         <v>70</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5492,7 +5914,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5510,18 +5932,18 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5544,17 +5966,17 @@
         <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5603,7 +6025,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5621,18 +6043,18 @@
         <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5655,19 +6077,19 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5716,7 +6138,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5734,21 +6156,21 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>40</v>
@@ -5770,19 +6192,19 @@
         <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -5807,11 +6229,11 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
@@ -5829,7 +6251,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5847,18 +6269,18 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5881,19 +6303,19 @@
         <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -5942,7 +6364,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5960,21 +6382,21 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>40</v>
@@ -5996,16 +6418,16 @@
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6055,7 +6477,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>51</v>
@@ -6070,13 +6492,13 @@
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>40</v>
@@ -6084,7 +6506,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6107,16 +6529,16 @@
         <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6166,7 +6588,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6181,13 +6603,13 @@
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
@@ -6195,7 +6617,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6218,13 +6640,13 @@
         <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6275,7 +6697,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6293,10 +6715,10 @@
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>40</v>
@@ -6304,7 +6726,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6327,13 +6749,13 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6384,7 +6806,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6402,10 +6824,10 @@
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -6413,7 +6835,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6436,13 +6858,13 @@
         <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6493,7 +6915,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>51</v>
@@ -6508,21 +6930,21 @@
         <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6545,16 +6967,16 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6604,7 +7026,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6622,7 +7044,7 @@
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
@@ -6633,7 +7055,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6659,13 +7081,13 @@
         <v>70</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6691,13 +7113,13 @@
         <v>40</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>40</v>
@@ -6715,7 +7137,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>51</v>
@@ -6730,10 +7152,10 @@
         <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
@@ -6744,7 +7166,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6767,13 +7189,13 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6800,13 +7222,13 @@
         <v>40</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>40</v>
@@ -6824,7 +7246,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6833,7 +7255,7 @@
         <v>42</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>40</v>
@@ -6842,7 +7264,7 @@
         <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
@@ -6853,7 +7275,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6876,13 +7298,13 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6933,7 +7355,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6951,7 +7373,7 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -6962,11 +7384,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6988,13 +7410,13 @@
         <v>96</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7035,7 +7457,7 @@
         <v>99</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>40</v>
@@ -7044,7 +7466,7 @@
         <v>100</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7062,7 +7484,7 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
@@ -7073,7 +7495,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7096,19 +7518,19 @@
         <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
@@ -7145,7 +7567,7 @@
         <v>40</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AB52" s="2"/>
       <c r="AC52" t="s" s="2">
@@ -7155,7 +7577,7 @@
         <v>100</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7173,21 +7595,21 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>40</v>
@@ -7209,19 +7631,19 @@
         <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>40</v>
@@ -7246,11 +7668,11 @@
         <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>40</v>
@@ -7268,7 +7690,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7286,18 +7708,18 @@
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7320,19 +7742,19 @@
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7381,7 +7803,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7399,18 +7821,18 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7433,16 +7855,16 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7468,13 +7890,13 @@
         <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>40</v>
@@ -7492,7 +7914,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7507,13 +7929,13 @@
         <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>40</v>
@@ -7521,7 +7943,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7544,13 +7966,13 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7601,7 +8023,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7619,7 +8041,7 @@
         <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
@@ -7630,11 +8052,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7656,13 +8078,13 @@
         <v>96</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7703,7 +8125,7 @@
         <v>99</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>40</v>
@@ -7712,7 +8134,7 @@
         <v>100</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7730,7 +8152,7 @@
         <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
@@ -7741,7 +8163,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7764,19 +8186,19 @@
         <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
@@ -7813,7 +8235,7 @@
         <v>40</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AB58" s="2"/>
       <c r="AC58" t="s" s="2">
@@ -7823,7 +8245,7 @@
         <v>100</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7841,21 +8263,21 @@
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>40</v>
@@ -7877,19 +8299,19 @@
         <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
@@ -7914,11 +8336,11 @@
         <v>40</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>40</v>
@@ -7936,7 +8358,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7954,18 +8376,18 @@
         <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7988,19 +8410,19 @@
         <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -8049,7 +8471,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8067,18 +8489,18 @@
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8101,16 +8523,16 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8160,7 +8582,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8175,13 +8597,13 @@
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>40</v>
@@ -8189,7 +8611,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8212,13 +8634,13 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8269,7 +8691,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8284,10 +8706,10 @@
         <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
@@ -8298,7 +8720,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8321,16 +8743,16 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8380,7 +8802,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8392,23 +8814,5363 @@
         <v>106</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AB68" s="2"/>
+      <c r="AC68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="X69" s="2"/>
+      <c r="Y69" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE75" s="2"/>
+      <c r="AF75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG75" s="2"/>
+      <c r="AH75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AB79" s="2"/>
+      <c r="AC79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="X80" s="2"/>
+      <c r="Y80" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="X85" s="2"/>
+      <c r="Y85" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AB90" s="2"/>
+      <c r="AC90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AB94" s="2"/>
+      <c r="AC94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="X95" s="2"/>
+      <c r="Y95" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AB100" s="2"/>
+      <c r="AC100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AB104" s="2"/>
+      <c r="AC104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="X105" s="2"/>
+      <c r="Y105" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M110" s="2"/>
+      <c r="N110" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM111" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM63">
+  <autoFilter ref="A1:AM111">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8418,7 +14180,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI62">
+  <conditionalFormatting sqref="A2:AI110">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedHealthSummary/medicationstatement-summary-1.xlsx
+++ b/output/SharedHealthSummary/medicationstatement-summary-1.xlsx
@@ -557,37 +557,37 @@
     <t>class</t>
   </si>
   <si>
+    <t>MedicationStatement.medication[x]</t>
+  </si>
+  <si>
+    <t>Medication Detail</t>
+  </si>
+  <si>
+    <t>Identifies the medication being administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example if you require form or lot number, then you must reference the Medication resource. .</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A coded concept identifying the substance or product being taken.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+  </si>
+  <si>
+    <t>…code</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=ADMM or MANU]</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
     <t>MedicationStatement.medicationCodeableConcept</t>
-  </si>
-  <si>
-    <t>Medication Detail</t>
-  </si>
-  <si>
-    <t>Identifies the medication being administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example if you require form or lot number, then you must reference the Medication resource. .</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A coded concept identifying the substance or product being taken.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x]</t>
-  </si>
-  <si>
-    <t>…code</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=ADMM or MANU]</t>
-  </si>
-  <si>
-    <t>what</t>
   </si>
   <si>
     <t>medicationCoded</t>
@@ -4025,28 +4025,28 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AF20" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>179</v>
@@ -4138,7 +4138,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>51</v>
@@ -4153,13 +4153,13 @@
         <v>181</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
@@ -6477,28 +6477,28 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AF42" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
+      <c r="AK42" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AK42" t="s" s="2">
+      <c r="AL42" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>40</v>

--- a/output/SharedHealthSummary/medicationstatement-summary-1.xlsx
+++ b/output/SharedHealthSummary/medicationstatement-summary-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="383">
   <si>
     <t>Path</t>
   </si>
@@ -578,6 +578,13 @@
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>…code</t>
   </si>
   <si>
@@ -587,10 +594,7 @@
     <t>what</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept</t>
-  </si>
-  <si>
-    <t>medicationCoded</t>
+    <t>medicationCodeableConcept</t>
   </si>
   <si>
     <t>Coded Medication</t>
@@ -600,7 +604,7 @@
 inv-amt-tpp:AMT TPU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpp-codes'}inv-amt-tp:AMT TP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tp-codes'}inv-amt-mpuu:AMT MPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpuu-codes'}inv-amt-mpp:AMT MPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpp-codes'}inv-amt-mp:AMT MP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mp-codes'}inv-amt-ctpp:AMT CTPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-ctpp-codes'}</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.id</t>
+    <t>MedicationStatement.medication[x].id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -619,7 +623,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.extension</t>
+    <t>MedicationStatement.medication[x].extension</t>
   </si>
   <si>
     <t>Additional Content defined by implementations</t>
@@ -634,7 +638,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding</t>
+    <t>MedicationStatement.medication[x].coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
@@ -699,10 +703,10 @@
     <t>https://healthterminologies.gov.au/fhir/ValueSet/australian-medication-1</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.extension</t>
+    <t>MedicationStatement.medication[x].coding.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.extension</t>
   </si>
   <si>
     <t>medicationClass</t>
@@ -718,13 +722,13 @@
     <t>General category of coding to allow usage of codes to be distinguished from the same CodeSystem</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.extension.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.extension.url</t>
+    <t>MedicationStatement.medication[x].coding.extension.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.extension.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.extension.url</t>
   </si>
   <si>
     <t>identifies the meaning of the extension</t>
@@ -742,16 +746,19 @@
     <t>Extension.url</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.extension.valueCoding</t>
+    <t>MedicationStatement.medication[x].coding.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
   </si>
   <si>
     <t>valueCoding</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
@@ -767,10 +774,7 @@
     <t>http://hl7.org.au/fhir/ValueSet/medication-type</t>
   </si>
   <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.system</t>
+    <t>MedicationStatement.medication[x].coding.system</t>
   </si>
   <si>
     <t>Identity of the terminology system</t>
@@ -794,7 +798,7 @@
     <t>C*E.3</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.version</t>
+    <t>MedicationStatement.medication[x].coding.version</t>
   </si>
   <si>
     <t>Version of the system - if relevant</t>
@@ -815,7 +819,7 @@
     <t>C*E.7</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.code</t>
+    <t>MedicationStatement.medication[x].coding.code</t>
   </si>
   <si>
     <t>Symbol in syntax defined by the system</t>
@@ -836,7 +840,7 @@
     <t>C*E.1</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.display</t>
+    <t>MedicationStatement.medication[x].coding.display</t>
   </si>
   <si>
     <t>Representation defined by the system</t>
@@ -857,7 +861,7 @@
     <t>C*E.2 - but note this is not well followed</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.userSelected</t>
+    <t>MedicationStatement.medication[x].coding.userSelected</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
@@ -894,7 +898,7 @@
     <t>http://hl7.org.au/fhir/ValueSet/mims</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.text</t>
+    <t>MedicationStatement.medication[x].text</t>
   </si>
   <si>
     <t>Plain text representation of the concept</t>
@@ -916,9 +920,6 @@
   </si>
   <si>
     <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medicationReference</t>
   </si>
   <si>
     <t>medicationReference</t>
@@ -1222,422 +1223,6 @@
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer
-</t>
-  </si>
-  <si>
-    <t>The order of the dosage instructions</t>
-  </si>
-  <si>
-    <t>Indicates the order in which the dosage instructions should be applied or interpreted.</t>
-  </si>
-  <si>
-    <t>If the sequence number of multiple Dosages is the same, then it is implied that the instructions are to be treated as concurrent.  If the sequence number is different, then the Dosages are intended to be sequential.</t>
-  </si>
-  <si>
-    <t>Dosage.sequence</t>
-  </si>
-  <si>
-    <t>.text</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.text</t>
-  </si>
-  <si>
-    <t>Free text dosage instructions e.g. SIG</t>
-  </si>
-  <si>
-    <t>Free text dosage instructions e.g. SIG.</t>
-  </si>
-  <si>
-    <t>Free text dosage instructions can be used for cases where the instructions are too complex to code.  The content of this attribute does not include the name or description of the medication. When coded instructions are present, the free text instructions may still be present for display to humans taking or administering the medication. It is expected that the text instructions will always be populated.  If the dosage.timing attribute is also populated, then the dosage.text should reflect the same information as the timing.</t>
-  </si>
-  <si>
-    <t>Dosage.text</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.additionalInstruction</t>
-  </si>
-  <si>
-    <t>Supplemental instruction - e.g. "with meals"</t>
-  </si>
-  <si>
-    <t>Supplemental instruction - e.g. "with meals".</t>
-  </si>
-  <si>
-    <t>Additional instruction such as "Swallow with plenty of water" which may or may not be coded.</t>
-  </si>
-  <si>
-    <t>A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:coding.system}
-</t>
-  </si>
-  <si>
-    <t>Dosage.additionalInstruction</t>
-  </si>
-  <si>
-    <t>snomedAdditionalInstruction</t>
-  </si>
-  <si>
-    <t>SNOMED CT Additional Instruction</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.patientInstruction</t>
-  </si>
-  <si>
-    <t>Patient or consumer oriented instructions</t>
-  </si>
-  <si>
-    <t>Instructions in terms that are understood by the patient or consumer.</t>
-  </si>
-  <si>
-    <t>Dosage.patientInstruction</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.timing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timing
-</t>
-  </si>
-  <si>
-    <t>When medication should be administered</t>
-  </si>
-  <si>
-    <t>When medication should be administered.</t>
-  </si>
-  <si>
-    <t>This attribute may not always be populated while the Dosage.text is expected to be populated.  If both are populated, then the Dosage.text should reflect the content of the Dosage.timing.</t>
-  </si>
-  <si>
-    <t>The timing schedule for giving the medication to the patient. The Schedule data type allows many different expressions. For example: "Every 8 hours"; "Three times a day"; "1/2 an hour before breakfast for 10 days from 23-Dec 2011:"; "15 Oct 2013, 17 Oct 2013 and 1 Nov 2013".  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
-  </si>
-  <si>
-    <t>Dosage.timing</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeeded[x]</t>
-  </si>
-  <si>
-    <t>boolean
-CodeableConcept</t>
-  </si>
-  <si>
-    <t>Take "as needed" (for x)</t>
-  </si>
-  <si>
-    <t>Indicates whether the Medication is only taken when needed within a specific dosing schedule (Boolean option), or it indicates the precondition for taking the Medication (CodeableConcept).</t>
-  </si>
-  <si>
-    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
-  </si>
-  <si>
-    <t>A coded concept identifying the precondition that should be met or evaluated prior to consuming or administering a medication dose.  For example "pain", "30 minutes prior to sexual intercourse", "on flare-up" etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
-  </si>
-  <si>
-    <t>Dosage.asNeeded[x]</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=PRCN].target[classCode=OBS, moodCode=EVN, code="as needed"].value=boolean or codable concept</t>
-  </si>
-  <si>
-    <t>asNeededCoding</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeeded[x].id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeeded[x].extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeededCodeableConcept</t>
-  </si>
-  <si>
-    <t>Coded Reason For Take "as needed"</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeededCodeableConcept.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeededCodeableConcept.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeededCodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>snomedFinding</t>
-  </si>
-  <si>
-    <t>Clinical Finding (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/clinical-finding-1</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeededCodeableConcept.text</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.site</t>
-  </si>
-  <si>
-    <t>Body site to administer to</t>
-  </si>
-  <si>
-    <t>Body site to administer to.</t>
-  </si>
-  <si>
-    <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [body-site-instance](http://hl7.org/fhir/STU3/extension-body-site-instance.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
-  </si>
-  <si>
-    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
-  </si>
-  <si>
-    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
-  </si>
-  <si>
-    <t>Dosage.site</t>
-  </si>
-  <si>
-    <t>.approachSiteCode</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.site.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.site.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.site.coding</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/body-site-1</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.site.text</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.route</t>
-  </si>
-  <si>
-    <t>How drug should enter body</t>
-  </si>
-  <si>
-    <t>How drug should enter body.</t>
-  </si>
-  <si>
-    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
-  </si>
-  <si>
-    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
-  </si>
-  <si>
-    <t>Dosage.route</t>
-  </si>
-  <si>
-    <t>.routeCode</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.route.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.route.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.route.coding</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.route.text</t>
-  </si>
-  <si>
-    <t>snomedRoute</t>
-  </si>
-  <si>
-    <t>Route of Administration (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/route-of-administration-1</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.method</t>
-  </si>
-  <si>
-    <t>Technique for administering medication</t>
-  </si>
-  <si>
-    <t>Technique for administering medication.</t>
-  </si>
-  <si>
-    <t>Terminologies used often pre-coordinate this term with the route and or form of administration.</t>
-  </si>
-  <si>
-    <t>A coded value indicating the method by which the medication is introduced into or onto the body. Most commonly used for injections.  For examples, Slow Push; Deep IV.</t>
-  </si>
-  <si>
-    <t>A coded concept describing the technique by which the medicine is administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
-  </si>
-  <si>
-    <t>Dosage.method</t>
-  </si>
-  <si>
-    <t>.doseQuantity</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.method.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.method.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.method.coding</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.method.text</t>
-  </si>
-  <si>
-    <t>snomedMethod</t>
-  </si>
-  <si>
-    <t>SNOMED CT Administration Method</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.dose[x]</t>
-  </si>
-  <si>
-    <t>Range
-Quantity {SimpleQuantity}</t>
-  </si>
-  <si>
-    <t>Amount of medication per dose</t>
-  </si>
-  <si>
-    <t>Amount of medication per dose.</t>
-  </si>
-  <si>
-    <t>Note that this specifies the quantity of the specified medication, not the quantity for each active ingredient(s). Each ingredient amount can be communicated in the Medication resource. For example, if one wants to communicate that a tablet was 375 mg, where the dose was one tablet, you can use the Medication resource to document that the tablet was comprised of 375 mg of drug XYZ. Alternatively if the dose was 375 mg, then you may only need to use the Medication resource to indicate this was a tablet. If the example were an IV such as dopamine and you wanted to communicate that 400mg of dopamine was mixed in 500 ml of some IV solution, then this would all be communicated in the Medication resource. If the administration is not intended to be instantaneous (rate is present or timing has a duration), this can be specified to convey the total amount to be administered over the period of time as indicated by the schedule e.g. 500 ml in dose, with timing used to convey that this should be done over 4 hours.</t>
-  </si>
-  <si>
-    <t>The amount of therapeutic or other substance given at one administration event.</t>
-  </si>
-  <si>
-    <t>Dosage.dose[x]</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.maxDosePerPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio
-</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per unit of time</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per unit of time.</t>
-  </si>
-  <si>
-    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example "2 tablets every 4 hours to a maximum of 8/day".</t>
-  </si>
-  <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
-  </si>
-  <si>
-    <t>Dosage.maxDosePerPeriod</t>
-  </si>
-  <si>
-    <t>.maxDoseQuantity</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.maxDosePerAdministration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per administration</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per administration.</t>
-  </si>
-  <si>
-    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example, a body surface area related dose with a maximum amount, such as 1.5 mg/m2 (maximum 2 mg) IV over 5 – 10 minutes would have doseQuantity of 1.5 mg/m2 and maxDosePerAdministration of 2 mg.</t>
-  </si>
-  <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
-  </si>
-  <si>
-    <t>Dosage.maxDosePerAdministration</t>
-  </si>
-  <si>
-    <t>not supported</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.maxDosePerLifetime</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per lifetime of the patient</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per lifetime of the patient.</t>
-  </si>
-  <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
-  </si>
-  <si>
-    <t>Dosage.maxDosePerLifetime</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.rate[x]</t>
-  </si>
-  <si>
-    <t>Ratio
-RangeQuantity {SimpleQuantity}</t>
-  </si>
-  <si>
-    <t>Amount of medication per unit of time</t>
-  </si>
-  <si>
-    <t>Amount of medication per unit of time.</t>
-  </si>
-  <si>
-    <t>It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.</t>
-  </si>
-  <si>
-    <t>Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
-  </si>
-  <si>
-    <t>Dosage.rate[x]</t>
-  </si>
-  <si>
-    <t>.rateQuantity</t>
   </si>
 </sst>
 </file>
@@ -1786,7 +1371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM111"/>
+  <dimension ref="A1:AM64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1795,8 +1380,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="74.31640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.14453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1818,10 +1403,10 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="192.3984375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="120.0234375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="74.1171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
@@ -3941,7 +3526,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>168</v>
       </c>
@@ -4013,16 +3598,14 @@
         <v>40</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>168</v>
@@ -4040,13 +3623,13 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
@@ -4054,10 +3637,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>40</v>
@@ -4082,7 +3665,7 @@
         <v>160</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>170</v>
@@ -4150,16 +3733,16 @@
         <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
@@ -4167,7 +3750,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4190,13 +3773,13 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4247,7 +3830,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -4265,7 +3848,7 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -4276,7 +3859,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4302,10 +3885,10 @@
         <v>96</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>120</v>
@@ -4349,7 +3932,7 @@
         <v>99</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>40</v>
@@ -4358,7 +3941,7 @@
         <v>100</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -4376,7 +3959,7 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -4387,7 +3970,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4410,19 +3993,19 @@
         <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -4459,7 +4042,7 @@
         <v>40</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
@@ -4469,7 +4052,7 @@
         <v>100</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4487,21 +4070,21 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>40</v>
@@ -4523,19 +4106,19 @@
         <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4564,7 +4147,7 @@
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -4582,7 +4165,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4600,21 +4183,21 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>40</v>
@@ -4636,19 +4219,19 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -4677,7 +4260,7 @@
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
@@ -4695,7 +4278,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4713,21 +4296,21 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>40</v>
@@ -4749,19 +4332,19 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4790,7 +4373,7 @@
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>40</v>
@@ -4808,7 +4391,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4826,18 +4409,18 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4860,13 +4443,13 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4917,7 +4500,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4935,7 +4518,7 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -4946,7 +4529,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5017,7 +4600,7 @@
         <v>99</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>40</v>
@@ -5026,7 +4609,7 @@
         <v>100</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -5055,10 +4638,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>40</v>
@@ -5080,13 +4663,13 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5137,7 +4720,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -5166,7 +4749,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5189,13 +4772,13 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5246,7 +4829,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -5264,7 +4847,7 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -5275,7 +4858,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5301,10 +4884,10 @@
         <v>96</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>120</v>
@@ -5348,7 +4931,7 @@
         <v>99</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>40</v>
@@ -5357,7 +4940,7 @@
         <v>100</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5375,7 +4958,7 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
@@ -5386,7 +4969,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5412,13 +4995,13 @@
         <v>64</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5426,7 +5009,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>40</v>
@@ -5468,7 +5051,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>51</v>
@@ -5497,17 +5080,15 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="B34" t="s" s="2">
         <v>229</v>
       </c>
+      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>51</v>
@@ -5522,7 +5103,7 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>230</v>
@@ -5537,49 +5118,47 @@
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AB34" s="2"/>
+      <c r="AC34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5608,15 +5187,17 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="C35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>51</v>
@@ -5628,29 +5209,25 @@
         <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>40</v>
@@ -5668,13 +5245,13 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
@@ -5692,7 +5269,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5710,18 +5287,18 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>242</v>
+        <v>94</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>243</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5744,18 +5321,20 @@
         <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>183</v>
+        <v>64</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>40</v>
       </c>
@@ -5803,7 +5382,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5821,18 +5400,18 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5855,18 +5434,18 @@
         <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>70</v>
+        <v>184</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5914,7 +5493,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5932,18 +5511,18 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5966,17 +5545,17 @@
         <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>183</v>
+        <v>70</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -6025,7 +5604,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -6043,18 +5622,18 @@
         <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6077,19 +5656,17 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>266</v>
+        <v>184</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -6138,7 +5715,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -6156,22 +5733,20 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>40</v>
       </c>
@@ -6192,19 +5767,19 @@
         <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>194</v>
+        <v>267</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>196</v>
+        <v>269</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>197</v>
+        <v>270</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>198</v>
+        <v>271</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -6229,11 +5804,13 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X40" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y40" t="s" s="2">
-        <v>276</v>
+        <v>40</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
@@ -6251,13 +5828,13 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>40</v>
@@ -6269,20 +5846,22 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>201</v>
+        <v>273</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>202</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="C41" t="s" s="2">
         <v>40</v>
       </c>
@@ -6303,19 +5882,19 @@
         <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>280</v>
+        <v>198</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>281</v>
+        <v>199</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -6340,13 +5919,11 @@
         <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
-        <v>40</v>
+        <v>277</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>40</v>
@@ -6364,13 +5941,13 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>40</v>
@@ -6382,28 +5959,26 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>283</v>
+        <v>202</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>284</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>51</v>
@@ -6418,18 +5993,20 @@
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>287</v>
+        <v>184</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
       </c>
@@ -6477,10 +6054,10 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>168</v>
+        <v>283</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>51</v>
@@ -6492,29 +6069,31 @@
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>176</v>
+        <v>284</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>40</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="C43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>51</v>
@@ -6529,16 +6108,16 @@
         <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>293</v>
+        <v>171</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6588,10 +6167,10 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>289</v>
+        <v>168</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>51</v>
@@ -6603,13 +6182,13 @@
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>294</v>
+        <v>177</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>295</v>
+        <v>178</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>296</v>
+        <v>179</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
@@ -6617,7 +6196,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6640,15 +6219,17 @@
         <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
@@ -6697,7 +6278,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6712,21 +6293,21 @@
         <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>40</v>
+        <v>294</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6740,22 +6321,22 @@
         <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6806,7 +6387,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6824,10 +6405,10 @@
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -6835,7 +6416,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6843,7 +6424,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>51</v>
@@ -6855,16 +6436,16 @@
         <v>40</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6915,10 +6496,10 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>51</v>
@@ -6930,21 +6511,21 @@
         <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>313</v>
+        <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>316</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6952,32 +6533,30 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>40</v>
@@ -7026,36 +6605,36 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7063,31 +6642,31 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>70</v>
+        <v>318</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7113,13 +6692,13 @@
         <v>40</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>327</v>
+        <v>40</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>328</v>
+        <v>40</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>40</v>
@@ -7137,36 +6716,36 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" hidden="true">
-      <c r="A49" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7174,30 +6753,32 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -7222,13 +6803,13 @@
         <v>40</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>40</v>
@@ -7246,25 +6827,25 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>336</v>
+        <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>40</v>
+        <v>329</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
@@ -7275,7 +6856,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7286,7 +6867,7 @@
         <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>40</v>
@@ -7298,13 +6879,13 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>184</v>
+        <v>332</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>185</v>
+        <v>333</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7331,13 +6912,13 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>40</v>
+        <v>334</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>40</v>
+        <v>335</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>40</v>
@@ -7355,16 +6936,16 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>186</v>
+        <v>331</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>40</v>
+        <v>336</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>40</v>
@@ -7373,7 +6954,7 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>187</v>
+        <v>337</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -7384,18 +6965,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>40</v>
@@ -7407,17 +6988,15 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -7454,25 +7033,25 @@
         <v>40</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>40</v>
@@ -7484,7 +7063,7 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
@@ -7495,11 +7074,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7515,23 +7094,21 @@
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>194</v>
+        <v>96</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>341</v>
+        <v>190</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7567,9 +7144,11 @@
         <v>40</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AB52" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="AC52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7577,7 +7156,7 @@
         <v>100</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7595,22 +7174,20 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>202</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="B53" t="s" s="2">
-        <v>343</v>
-      </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7619,7 +7196,7 @@
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
@@ -7631,19 +7208,19 @@
         <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>40</v>
@@ -7668,29 +7245,29 @@
         <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X53" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y53" t="s" s="2">
-        <v>345</v>
+        <v>40</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="AB53" s="2"/>
       <c r="AC53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7708,20 +7285,22 @@
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="C54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7742,19 +7321,19 @@
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>280</v>
+        <v>198</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>281</v>
+        <v>199</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7779,13 +7358,11 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>40</v>
+        <v>345</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>40</v>
@@ -7803,13 +7380,13 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
@@ -7821,18 +7398,18 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>283</v>
+        <v>202</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>284</v>
+        <v>203</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7846,27 +7423,29 @@
         <v>51</v>
       </c>
       <c r="G55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>348</v>
+        <v>279</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>349</v>
+        <v>280</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7890,13 +7469,13 @@
         <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>351</v>
+        <v>40</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>352</v>
+        <v>40</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>40</v>
@@ -7914,36 +7493,36 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7957,7 +7536,7 @@
         <v>51</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>40</v>
@@ -7966,15 +7545,17 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>184</v>
+        <v>348</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>40</v>
@@ -7999,13 +7580,13 @@
         <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>40</v>
+        <v>351</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>40</v>
+        <v>352</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>40</v>
@@ -8023,13 +7604,13 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>186</v>
+        <v>347</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>40</v>
@@ -8038,13 +7619,13 @@
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>40</v>
+        <v>353</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>187</v>
+        <v>354</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>40</v>
+        <v>355</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>40</v>
@@ -8052,18 +7633,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>40</v>
@@ -8075,17 +7656,15 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>40</v>
@@ -8122,25 +7701,25 @@
         <v>40</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>40</v>
@@ -8152,7 +7731,7 @@
         <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
@@ -8163,11 +7742,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8183,23 +7762,21 @@
         <v>40</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>194</v>
+        <v>96</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>341</v>
+        <v>190</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>40</v>
       </c>
@@ -8235,9 +7812,11 @@
         <v>40</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AB58" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="AC58" t="s" s="2">
         <v>40</v>
       </c>
@@ -8245,7 +7824,7 @@
         <v>100</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -8263,22 +7842,20 @@
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>202</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="B59" t="s" s="2">
-        <v>359</v>
-      </c>
+      <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
         <v>40</v>
       </c>
@@ -8287,7 +7864,7 @@
         <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>40</v>
@@ -8299,19 +7876,19 @@
         <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
@@ -8336,29 +7913,29 @@
         <v>40</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X59" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y59" t="s" s="2">
-        <v>361</v>
+        <v>40</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="AB59" s="2"/>
       <c r="AC59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8376,20 +7953,22 @@
         <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B60" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="C60" t="s" s="2">
         <v>40</v>
       </c>
@@ -8410,19 +7989,19 @@
         <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>280</v>
+        <v>198</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>281</v>
+        <v>199</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -8447,13 +8026,11 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="X60" s="2"/>
       <c r="Y60" t="s" s="2">
-        <v>40</v>
+        <v>361</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
@@ -8471,13 +8048,13 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>40</v>
@@ -8489,18 +8066,18 @@
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>283</v>
+        <v>202</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>284</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8511,7 +8088,7 @@
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
@@ -8520,21 +8097,23 @@
         <v>40</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>364</v>
+        <v>184</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>365</v>
+        <v>279</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>366</v>
+        <v>280</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>40</v>
       </c>
@@ -8582,36 +8161,36 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8625,7 +8204,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>40</v>
@@ -8634,15 +8213,17 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -8691,7 +8272,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8706,13 +8287,13 @@
         <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>40</v>
+        <v>355</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>40</v>
@@ -8720,7 +8301,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8728,10 +8309,10 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>52</v>
@@ -8743,17 +8324,15 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>40</v>
@@ -8802,7 +8381,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8811,16 +8390,16 @@
         <v>42</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>381</v>
+        <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>40</v>
+        <v>374</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
@@ -8829,9 +8408,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8839,13 +8418,13 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>40</v>
@@ -8854,15 +8433,17 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>183</v>
+        <v>377</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>184</v>
+        <v>378</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>40</v>
@@ -8911,5266 +8492,35 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>186</v>
+        <v>376</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>40</v>
+        <v>381</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>187</v>
+        <v>382</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AB68" s="2"/>
-      <c r="AC68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X69" s="2"/>
-      <c r="Y69" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE75" s="2"/>
-      <c r="AF75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG75" s="2"/>
-      <c r="AH75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AB79" s="2"/>
-      <c r="AC79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X80" s="2"/>
-      <c r="Y80" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X85" s="2"/>
-      <c r="Y85" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AB90" s="2"/>
-      <c r="AC90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AB94" s="2"/>
-      <c r="AC94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X95" s="2"/>
-      <c r="Y95" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AB100" s="2"/>
-      <c r="AC100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AB104" s="2"/>
-      <c r="AC104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="C105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X105" s="2"/>
-      <c r="Y105" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F108" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P108" s="2"/>
-      <c r="Q108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F109" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P109" s="2"/>
-      <c r="Q109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F110" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M110" s="2"/>
-      <c r="N110" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P110" s="2"/>
-      <c r="Q110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F111" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P111" s="2"/>
-      <c r="Q111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM111" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM111">
+  <autoFilter ref="A1:AM64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14180,7 +8530,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI110">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedHealthSummary/medicationstatement-summary-1.xlsx
+++ b/output/SharedHealthSummary/medicationstatement-summary-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$111</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="519">
   <si>
     <t>Path</t>
   </si>
@@ -578,13 +578,6 @@
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>…code</t>
   </si>
   <si>
@@ -594,7 +587,10 @@
     <t>what</t>
   </si>
   <si>
-    <t>medicationCodeableConcept</t>
+    <t>MedicationStatement.medicationCodeableConcept</t>
+  </si>
+  <si>
+    <t>medicationCoded</t>
   </si>
   <si>
     <t>Coded Medication</t>
@@ -604,7 +600,7 @@
 inv-amt-tpp:AMT TPU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpp-codes'}inv-amt-tp:AMT TP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tp-codes'}inv-amt-mpuu:AMT MPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpuu-codes'}inv-amt-mpp:AMT MPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpp-codes'}inv-amt-mp:AMT MP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mp-codes'}inv-amt-ctpp:AMT CTPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-ctpp-codes'}</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x].id</t>
+    <t>MedicationStatement.medicationCodeableConcept.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -623,7 +619,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x].extension</t>
+    <t>MedicationStatement.medicationCodeableConcept.extension</t>
   </si>
   <si>
     <t>Additional Content defined by implementations</t>
@@ -638,7 +634,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x].coding</t>
+    <t>MedicationStatement.medicationCodeableConcept.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
@@ -703,10 +699,10 @@
     <t>https://healthterminologies.gov.au/fhir/ValueSet/australian-medication-1</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x].coding.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].coding.extension</t>
+    <t>MedicationStatement.medicationCodeableConcept.coding.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medicationCodeableConcept.coding.extension</t>
   </si>
   <si>
     <t>medicationClass</t>
@@ -722,13 +718,13 @@
     <t>General category of coding to allow usage of codes to be distinguished from the same CodeSystem</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x].coding.extension.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].coding.extension.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].coding.extension.url</t>
+    <t>MedicationStatement.medicationCodeableConcept.coding.extension.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medicationCodeableConcept.coding.extension.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medicationCodeableConcept.coding.extension.url</t>
   </si>
   <si>
     <t>identifies the meaning of the extension</t>
@@ -746,19 +742,16 @@
     <t>Extension.url</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x].coding.extension.value[x]</t>
+    <t>MedicationStatement.medicationCodeableConcept.coding.extension.valueCoding</t>
+  </si>
+  <si>
+    <t>valueCoding</t>
   </si>
   <si>
     <t>Value of extension</t>
   </si>
   <si>
     <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>valueCoding</t>
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
@@ -774,7 +767,10 @@
     <t>http://hl7.org.au/fhir/ValueSet/medication-type</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x].coding.system</t>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medicationCodeableConcept.coding.system</t>
   </si>
   <si>
     <t>Identity of the terminology system</t>
@@ -798,7 +794,7 @@
     <t>C*E.3</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x].coding.version</t>
+    <t>MedicationStatement.medicationCodeableConcept.coding.version</t>
   </si>
   <si>
     <t>Version of the system - if relevant</t>
@@ -819,7 +815,7 @@
     <t>C*E.7</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x].coding.code</t>
+    <t>MedicationStatement.medicationCodeableConcept.coding.code</t>
   </si>
   <si>
     <t>Symbol in syntax defined by the system</t>
@@ -840,7 +836,7 @@
     <t>C*E.1</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x].coding.display</t>
+    <t>MedicationStatement.medicationCodeableConcept.coding.display</t>
   </si>
   <si>
     <t>Representation defined by the system</t>
@@ -861,7 +857,7 @@
     <t>C*E.2 - but note this is not well followed</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x].coding.userSelected</t>
+    <t>MedicationStatement.medicationCodeableConcept.coding.userSelected</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
@@ -898,7 +894,7 @@
     <t>http://hl7.org.au/fhir/ValueSet/mims</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x].text</t>
+    <t>MedicationStatement.medicationCodeableConcept.text</t>
   </si>
   <si>
     <t>Plain text representation of the concept</t>
@@ -920,6 +916,9 @@
   </si>
   <si>
     <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medicationReference</t>
   </si>
   <si>
     <t>medicationReference</t>
@@ -1223,6 +1222,422 @@
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer
+</t>
+  </si>
+  <si>
+    <t>The order of the dosage instructions</t>
+  </si>
+  <si>
+    <t>Indicates the order in which the dosage instructions should be applied or interpreted.</t>
+  </si>
+  <si>
+    <t>If the sequence number of multiple Dosages is the same, then it is implied that the instructions are to be treated as concurrent.  If the sequence number is different, then the Dosages are intended to be sequential.</t>
+  </si>
+  <si>
+    <t>Dosage.sequence</t>
+  </si>
+  <si>
+    <t>.text</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.text</t>
+  </si>
+  <si>
+    <t>Free text dosage instructions e.g. SIG</t>
+  </si>
+  <si>
+    <t>Free text dosage instructions e.g. SIG.</t>
+  </si>
+  <si>
+    <t>Free text dosage instructions can be used for cases where the instructions are too complex to code.  The content of this attribute does not include the name or description of the medication. When coded instructions are present, the free text instructions may still be present for display to humans taking or administering the medication. It is expected that the text instructions will always be populated.  If the dosage.timing attribute is also populated, then the dosage.text should reflect the same information as the timing.</t>
+  </si>
+  <si>
+    <t>Dosage.text</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.additionalInstruction</t>
+  </si>
+  <si>
+    <t>Supplemental instruction - e.g. "with meals"</t>
+  </si>
+  <si>
+    <t>Supplemental instruction - e.g. "with meals".</t>
+  </si>
+  <si>
+    <t>Additional instruction such as "Swallow with plenty of water" which may or may not be coded.</t>
+  </si>
+  <si>
+    <t>A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:coding.system}
+</t>
+  </si>
+  <si>
+    <t>Dosage.additionalInstruction</t>
+  </si>
+  <si>
+    <t>snomedAdditionalInstruction</t>
+  </si>
+  <si>
+    <t>SNOMED CT Additional Instruction</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.patientInstruction</t>
+  </si>
+  <si>
+    <t>Patient or consumer oriented instructions</t>
+  </si>
+  <si>
+    <t>Instructions in terms that are understood by the patient or consumer.</t>
+  </si>
+  <si>
+    <t>Dosage.patientInstruction</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.timing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timing
+</t>
+  </si>
+  <si>
+    <t>When medication should be administered</t>
+  </si>
+  <si>
+    <t>When medication should be administered.</t>
+  </si>
+  <si>
+    <t>This attribute may not always be populated while the Dosage.text is expected to be populated.  If both are populated, then the Dosage.text should reflect the content of the Dosage.timing.</t>
+  </si>
+  <si>
+    <t>The timing schedule for giving the medication to the patient. The Schedule data type allows many different expressions. For example: "Every 8 hours"; "Three times a day"; "1/2 an hour before breakfast for 10 days from 23-Dec 2011:"; "15 Oct 2013, 17 Oct 2013 and 1 Nov 2013".  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
+  </si>
+  <si>
+    <t>Dosage.timing</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeeded[x]</t>
+  </si>
+  <si>
+    <t>boolean
+CodeableConcept</t>
+  </si>
+  <si>
+    <t>Take "as needed" (for x)</t>
+  </si>
+  <si>
+    <t>Indicates whether the Medication is only taken when needed within a specific dosing schedule (Boolean option), or it indicates the precondition for taking the Medication (CodeableConcept).</t>
+  </si>
+  <si>
+    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
+  </si>
+  <si>
+    <t>A coded concept identifying the precondition that should be met or evaluated prior to consuming or administering a medication dose.  For example "pain", "30 minutes prior to sexual intercourse", "on flare-up" etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
+  </si>
+  <si>
+    <t>Dosage.asNeeded[x]</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=PRCN].target[classCode=OBS, moodCode=EVN, code="as needed"].value=boolean or codable concept</t>
+  </si>
+  <si>
+    <t>asNeededCoding</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeeded[x].id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeeded[x].extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeededCodeableConcept</t>
+  </si>
+  <si>
+    <t>Coded Reason For Take "as needed"</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeededCodeableConcept.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeededCodeableConcept.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeededCodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>snomedFinding</t>
+  </si>
+  <si>
+    <t>Clinical Finding (SNOMED CT)</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/clinical-finding-1</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeededCodeableConcept.text</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.site</t>
+  </si>
+  <si>
+    <t>Body site to administer to</t>
+  </si>
+  <si>
+    <t>Body site to administer to.</t>
+  </si>
+  <si>
+    <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [body-site-instance](http://hl7.org/fhir/STU3/extension-body-site-instance.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
+  </si>
+  <si>
+    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
+  </si>
+  <si>
+    <t>Dosage.site</t>
+  </si>
+  <si>
+    <t>.approachSiteCode</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.site.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.site.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.site.coding</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/body-site-1</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.site.text</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route</t>
+  </si>
+  <si>
+    <t>How drug should enter body</t>
+  </si>
+  <si>
+    <t>How drug should enter body.</t>
+  </si>
+  <si>
+    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+  </si>
+  <si>
+    <t>Dosage.route</t>
+  </si>
+  <si>
+    <t>.routeCode</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route.coding</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route.text</t>
+  </si>
+  <si>
+    <t>snomedRoute</t>
+  </si>
+  <si>
+    <t>Route of Administration (SNOMED CT)</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/route-of-administration-1</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.method</t>
+  </si>
+  <si>
+    <t>Technique for administering medication</t>
+  </si>
+  <si>
+    <t>Technique for administering medication.</t>
+  </si>
+  <si>
+    <t>Terminologies used often pre-coordinate this term with the route and or form of administration.</t>
+  </si>
+  <si>
+    <t>A coded value indicating the method by which the medication is introduced into or onto the body. Most commonly used for injections.  For examples, Slow Push; Deep IV.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the technique by which the medicine is administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
+  </si>
+  <si>
+    <t>Dosage.method</t>
+  </si>
+  <si>
+    <t>.doseQuantity</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.method.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.method.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.method.coding</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.method.text</t>
+  </si>
+  <si>
+    <t>snomedMethod</t>
+  </si>
+  <si>
+    <t>SNOMED CT Administration Method</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.dose[x]</t>
+  </si>
+  <si>
+    <t>Range
+Quantity {SimpleQuantity}</t>
+  </si>
+  <si>
+    <t>Amount of medication per dose</t>
+  </si>
+  <si>
+    <t>Amount of medication per dose.</t>
+  </si>
+  <si>
+    <t>Note that this specifies the quantity of the specified medication, not the quantity for each active ingredient(s). Each ingredient amount can be communicated in the Medication resource. For example, if one wants to communicate that a tablet was 375 mg, where the dose was one tablet, you can use the Medication resource to document that the tablet was comprised of 375 mg of drug XYZ. Alternatively if the dose was 375 mg, then you may only need to use the Medication resource to indicate this was a tablet. If the example were an IV such as dopamine and you wanted to communicate that 400mg of dopamine was mixed in 500 ml of some IV solution, then this would all be communicated in the Medication resource. If the administration is not intended to be instantaneous (rate is present or timing has a duration), this can be specified to convey the total amount to be administered over the period of time as indicated by the schedule e.g. 500 ml in dose, with timing used to convey that this should be done over 4 hours.</t>
+  </si>
+  <si>
+    <t>The amount of therapeutic or other substance given at one administration event.</t>
+  </si>
+  <si>
+    <t>Dosage.dose[x]</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.maxDosePerPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio
+</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per unit of time</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per unit of time.</t>
+  </si>
+  <si>
+    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example "2 tablets every 4 hours to a maximum of 8/day".</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerPeriod</t>
+  </si>
+  <si>
+    <t>.maxDoseQuantity</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.maxDosePerAdministration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per administration</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per administration.</t>
+  </si>
+  <si>
+    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example, a body surface area related dose with a maximum amount, such as 1.5 mg/m2 (maximum 2 mg) IV over 5 – 10 minutes would have doseQuantity of 1.5 mg/m2 and maxDosePerAdministration of 2 mg.</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerAdministration</t>
+  </si>
+  <si>
+    <t>not supported</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.maxDosePerLifetime</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per lifetime of the patient</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per lifetime of the patient.</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerLifetime</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.rate[x]</t>
+  </si>
+  <si>
+    <t>Ratio
+RangeQuantity {SimpleQuantity}</t>
+  </si>
+  <si>
+    <t>Amount of medication per unit of time</t>
+  </si>
+  <si>
+    <t>Amount of medication per unit of time.</t>
+  </si>
+  <si>
+    <t>It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.</t>
+  </si>
+  <si>
+    <t>Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
+  </si>
+  <si>
+    <t>Dosage.rate[x]</t>
+  </si>
+  <si>
+    <t>.rateQuantity</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM64"/>
+  <dimension ref="A1:AM111"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1380,8 +1795,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="74.31640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.14453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1403,10 +1818,10 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="120.0234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="192.3984375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="74.1171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.921875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
@@ -3526,7 +3941,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>168</v>
       </c>
@@ -3598,14 +4013,16 @@
         <v>40</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AB20" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>168</v>
@@ -3623,13 +4040,13 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
@@ -3637,10 +4054,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>40</v>
@@ -3665,7 +4082,7 @@
         <v>160</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>170</v>
@@ -3733,16 +4150,16 @@
         <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
@@ -3750,7 +4167,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3773,13 +4190,13 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3830,25 +4247,25 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -3859,7 +4276,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3885,10 +4302,10 @@
         <v>96</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>120</v>
@@ -3932,7 +4349,7 @@
         <v>99</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>40</v>
@@ -3941,7 +4358,7 @@
         <v>100</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3959,7 +4376,7 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -3970,7 +4387,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3993,19 +4410,19 @@
         <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -4042,7 +4459,7 @@
         <v>40</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
@@ -4052,7 +4469,7 @@
         <v>100</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4070,21 +4487,21 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>203</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>40</v>
@@ -4106,19 +4523,19 @@
         <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="M25" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4147,7 +4564,7 @@
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -4165,7 +4582,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4183,21 +4600,21 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>203</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>40</v>
@@ -4219,19 +4636,19 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="M26" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -4260,7 +4677,7 @@
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
@@ -4278,7 +4695,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4296,21 +4713,21 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>203</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>40</v>
@@ -4332,19 +4749,19 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4373,7 +4790,7 @@
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>40</v>
@@ -4391,7 +4808,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4409,18 +4826,18 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>203</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4443,13 +4860,13 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4500,25 +4917,25 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -4529,7 +4946,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4600,7 +5017,7 @@
         <v>99</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>40</v>
@@ -4609,7 +5026,7 @@
         <v>100</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4638,10 +5055,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>40</v>
@@ -4663,13 +5080,13 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4720,7 +5137,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4749,7 +5166,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4772,13 +5189,13 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4829,25 +5246,25 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -4858,7 +5275,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4884,10 +5301,10 @@
         <v>96</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>120</v>
@@ -4931,7 +5348,7 @@
         <v>99</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>40</v>
@@ -4940,7 +5357,7 @@
         <v>100</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4958,7 +5375,7 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
@@ -4969,7 +5386,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4995,13 +5412,13 @@
         <v>64</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5009,49 +5426,49 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE33" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>51</v>
@@ -5080,15 +5497,17 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>51</v>
@@ -5103,7 +5522,7 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>230</v>
@@ -5118,7 +5537,7 @@
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>40</v>
@@ -5136,29 +5555,31 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AB34" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5187,17 +5608,15 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>51</v>
@@ -5209,25 +5628,29 @@
         <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>195</v>
+        <v>64</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>40</v>
@@ -5245,13 +5668,13 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
@@ -5269,7 +5692,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5287,18 +5710,18 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>94</v>
+        <v>242</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>40</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5321,20 +5744,18 @@
         <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
       </c>
@@ -5382,7 +5803,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5400,18 +5821,18 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5434,18 +5855,18 @@
         <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>184</v>
+        <v>70</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5493,7 +5914,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5511,18 +5932,18 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5545,17 +5966,17 @@
         <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5604,7 +6025,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5622,18 +6043,18 @@
         <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5656,17 +6077,19 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>184</v>
+        <v>266</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5715,7 +6138,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5733,20 +6156,22 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="C40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5767,19 +6192,19 @@
         <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>267</v>
+        <v>194</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>269</v>
+        <v>196</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>271</v>
+        <v>198</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -5804,13 +6229,11 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>40</v>
+        <v>276</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
@@ -5828,13 +6251,13 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>272</v>
+        <v>200</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>40</v>
@@ -5846,22 +6269,20 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>273</v>
+        <v>201</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>274</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>40</v>
       </c>
@@ -5882,19 +6303,19 @@
         <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>197</v>
+        <v>279</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>198</v>
+        <v>280</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>199</v>
+        <v>281</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -5919,11 +6340,13 @@
         <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X41" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y41" t="s" s="2">
-        <v>277</v>
+        <v>40</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>40</v>
@@ -5941,13 +6364,13 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>201</v>
+        <v>282</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>40</v>
@@ -5959,26 +6382,28 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>202</v>
+        <v>283</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>203</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="C42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>51</v>
@@ -5993,20 +6418,18 @@
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>184</v>
+        <v>287</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>40</v>
       </c>
@@ -6054,10 +6477,10 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>283</v>
+        <v>168</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>51</v>
@@ -6069,31 +6492,29 @@
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>284</v>
+        <v>176</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>285</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>51</v>
@@ -6108,16 +6529,16 @@
         <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>170</v>
+        <v>292</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>171</v>
+        <v>293</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6167,10 +6588,10 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>168</v>
+        <v>289</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>51</v>
@@ -6182,13 +6603,13 @@
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>177</v>
+        <v>294</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>178</v>
+        <v>295</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>179</v>
+        <v>296</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
@@ -6196,7 +6617,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6219,17 +6640,15 @@
         <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
@@ -6278,7 +6697,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6293,21 +6712,21 @@
         <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>294</v>
+        <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6321,22 +6740,22 @@
         <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6387,7 +6806,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6405,10 +6824,10 @@
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -6416,7 +6835,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6424,7 +6843,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>51</v>
@@ -6436,16 +6855,16 @@
         <v>40</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6496,10 +6915,10 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>51</v>
@@ -6511,21 +6930,21 @@
         <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>40</v>
+        <v>313</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>40</v>
+        <v>316</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6533,30 +6952,32 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>40</v>
@@ -6605,13 +7026,13 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>40</v>
@@ -6620,21 +7041,21 @@
         <v>40</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>313</v>
+        <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>315</v>
+        <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>316</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6642,31 +7063,31 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>318</v>
+        <v>70</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6692,13 +7113,13 @@
         <v>40</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>40</v>
+        <v>327</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>40</v>
+        <v>328</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>40</v>
@@ -6716,13 +7137,13 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>40</v>
@@ -6731,10 +7152,10 @@
         <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>40</v>
+        <v>329</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
@@ -6743,9 +7164,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6753,32 +7174,30 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -6803,13 +7222,13 @@
         <v>40</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>40</v>
@@ -6827,25 +7246,25 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>40</v>
+        <v>336</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>329</v>
+        <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
@@ -6856,7 +7275,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6867,7 +7286,7 @@
         <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>40</v>
@@ -6879,13 +7298,13 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>332</v>
+        <v>184</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>333</v>
+        <v>185</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6912,13 +7331,13 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>334</v>
+        <v>40</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>335</v>
+        <v>40</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>40</v>
@@ -6936,16 +7355,16 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>331</v>
+        <v>186</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>336</v>
+        <v>40</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>40</v>
@@ -6954,7 +7373,7 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>337</v>
+        <v>187</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -6965,18 +7384,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>40</v>
@@ -6988,15 +7407,17 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -7033,37 +7454,37 @@
         <v>40</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE51" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
@@ -7074,11 +7495,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7094,21 +7515,23 @@
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>96</v>
+        <v>194</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>190</v>
+        <v>341</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7144,11 +7567,9 @@
         <v>40</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="AB52" s="2"/>
       <c r="AC52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7156,7 +7577,7 @@
         <v>100</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7174,20 +7595,22 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="C53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7196,7 +7619,7 @@
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
@@ -7208,19 +7631,19 @@
         <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>40</v>
@@ -7245,29 +7668,29 @@
         <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>40</v>
+        <v>345</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AB53" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7285,22 +7708,20 @@
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>203</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7321,19 +7742,19 @@
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>344</v>
+        <v>278</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>197</v>
+        <v>279</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>198</v>
+        <v>280</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>199</v>
+        <v>281</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7358,11 +7779,13 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X54" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y54" t="s" s="2">
-        <v>345</v>
+        <v>40</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>40</v>
@@ -7380,13 +7803,13 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>201</v>
+        <v>282</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
@@ -7398,18 +7821,18 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>202</v>
+        <v>283</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>203</v>
+        <v>284</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7423,29 +7846,27 @@
         <v>51</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>279</v>
+        <v>348</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>280</v>
+        <v>349</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7469,13 +7890,13 @@
         <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>40</v>
+        <v>351</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>40</v>
+        <v>352</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>40</v>
@@ -7493,13 +7914,13 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>283</v>
+        <v>347</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>40</v>
@@ -7508,21 +7929,21 @@
         <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>40</v>
+        <v>353</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>284</v>
+        <v>354</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>40</v>
+        <v>355</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>285</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7536,7 +7957,7 @@
         <v>51</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>40</v>
@@ -7545,17 +7966,15 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>40</v>
@@ -7580,13 +7999,13 @@
         <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>351</v>
+        <v>40</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>352</v>
+        <v>40</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>40</v>
@@ -7604,13 +8023,13 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>347</v>
+        <v>186</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>40</v>
@@ -7619,13 +8038,13 @@
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>353</v>
+        <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>354</v>
+        <v>187</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>355</v>
+        <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>40</v>
@@ -7633,18 +8052,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>40</v>
@@ -7656,15 +8075,17 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>40</v>
@@ -7701,37 +8122,37 @@
         <v>40</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE57" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
@@ -7742,11 +8163,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7762,21 +8183,23 @@
         <v>40</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>96</v>
+        <v>194</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>190</v>
+        <v>341</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
       </c>
@@ -7812,11 +8235,9 @@
         <v>40</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="AB58" s="2"/>
       <c r="AC58" t="s" s="2">
         <v>40</v>
       </c>
@@ -7824,7 +8245,7 @@
         <v>100</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7842,20 +8263,22 @@
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="B59" s="2"/>
+      <c r="B59" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="C59" t="s" s="2">
         <v>40</v>
       </c>
@@ -7864,7 +8287,7 @@
         <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>40</v>
@@ -7876,19 +8299,19 @@
         <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
@@ -7913,29 +8336,29 @@
         <v>40</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>40</v>
+        <v>361</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AB59" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7953,22 +8376,20 @@
         <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>203</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
         <v>40</v>
       </c>
@@ -7989,19 +8410,19 @@
         <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>360</v>
+        <v>278</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>197</v>
+        <v>279</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>198</v>
+        <v>280</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>199</v>
+        <v>281</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -8026,11 +8447,13 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X60" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y60" t="s" s="2">
-        <v>361</v>
+        <v>40</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
@@ -8048,13 +8471,13 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>201</v>
+        <v>282</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>40</v>
@@ -8066,18 +8489,18 @@
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>202</v>
+        <v>283</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>203</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8088,7 +8511,7 @@
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
@@ -8097,23 +8520,21 @@
         <v>40</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>184</v>
+        <v>364</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>279</v>
+        <v>365</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>280</v>
+        <v>366</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>40</v>
       </c>
@@ -8161,13 +8582,13 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>283</v>
+        <v>363</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
@@ -8176,21 +8597,21 @@
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>40</v>
+        <v>368</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>284</v>
+        <v>369</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>40</v>
+        <v>355</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>285</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8204,7 +8625,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>40</v>
@@ -8213,17 +8634,15 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -8272,7 +8691,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8287,13 +8706,13 @@
         <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>355</v>
+        <v>40</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>40</v>
@@ -8301,7 +8720,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8309,10 +8728,10 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>52</v>
@@ -8324,15 +8743,17 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>40</v>
@@ -8381,7 +8802,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8390,16 +8811,16 @@
         <v>42</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>40</v>
+        <v>381</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>374</v>
+        <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
@@ -8408,9 +8829,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8418,13 +8839,13 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>40</v>
@@ -8433,17 +8854,15 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>377</v>
+        <v>183</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>378</v>
+        <v>184</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>40</v>
@@ -8492,35 +8911,5266 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>376</v>
+        <v>186</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F65" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AH64" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM64" t="s" s="2">
+      <c r="G65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AB68" s="2"/>
+      <c r="AC68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="X69" s="2"/>
+      <c r="Y69" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE75" s="2"/>
+      <c r="AF75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG75" s="2"/>
+      <c r="AH75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AB79" s="2"/>
+      <c r="AC79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="X80" s="2"/>
+      <c r="Y80" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="X85" s="2"/>
+      <c r="Y85" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AB90" s="2"/>
+      <c r="AC90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AB94" s="2"/>
+      <c r="AC94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="X95" s="2"/>
+      <c r="Y95" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AB100" s="2"/>
+      <c r="AC100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AB104" s="2"/>
+      <c r="AC104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="X105" s="2"/>
+      <c r="Y105" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M110" s="2"/>
+      <c r="N110" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM111" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM64">
+  <autoFilter ref="A1:AM111">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8530,7 +14180,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI63">
+  <conditionalFormatting sqref="A2:AI110">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedHealthSummary/medicationstatement-summary-1.xlsx
+++ b/output/SharedHealthSummary/medicationstatement-summary-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="383">
   <si>
     <t>Path</t>
   </si>
@@ -578,6 +578,13 @@
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>…code</t>
   </si>
   <si>
@@ -587,10 +594,7 @@
     <t>what</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept</t>
-  </si>
-  <si>
-    <t>medicationCoded</t>
+    <t>medicationCodeableConcept</t>
   </si>
   <si>
     <t>Coded Medication</t>
@@ -600,7 +604,7 @@
 inv-amt-tpp:AMT TPU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpp-codes'}inv-amt-tp:AMT TP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tp-codes'}inv-amt-mpuu:AMT MPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpuu-codes'}inv-amt-mpp:AMT MPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpp-codes'}inv-amt-mp:AMT MP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mp-codes'}inv-amt-ctpp:AMT CTPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-ctpp-codes'}</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.id</t>
+    <t>MedicationStatement.medication[x].id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -619,7 +623,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.extension</t>
+    <t>MedicationStatement.medication[x].extension</t>
   </si>
   <si>
     <t>Additional Content defined by implementations</t>
@@ -634,7 +638,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding</t>
+    <t>MedicationStatement.medication[x].coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
@@ -699,10 +703,10 @@
     <t>https://healthterminologies.gov.au/fhir/ValueSet/australian-medication-1</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.extension</t>
+    <t>MedicationStatement.medication[x].coding.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.extension</t>
   </si>
   <si>
     <t>medicationClass</t>
@@ -718,13 +722,13 @@
     <t>General category of coding to allow usage of codes to be distinguished from the same CodeSystem</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.extension.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.extension.url</t>
+    <t>MedicationStatement.medication[x].coding.extension.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.extension.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.extension.url</t>
   </si>
   <si>
     <t>identifies the meaning of the extension</t>
@@ -742,16 +746,19 @@
     <t>Extension.url</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.extension.valueCoding</t>
+    <t>MedicationStatement.medication[x].coding.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
   </si>
   <si>
     <t>valueCoding</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
@@ -767,10 +774,7 @@
     <t>http://hl7.org.au/fhir/ValueSet/medication-type</t>
   </si>
   <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.system</t>
+    <t>MedicationStatement.medication[x].coding.system</t>
   </si>
   <si>
     <t>Identity of the terminology system</t>
@@ -794,7 +798,7 @@
     <t>C*E.3</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.version</t>
+    <t>MedicationStatement.medication[x].coding.version</t>
   </si>
   <si>
     <t>Version of the system - if relevant</t>
@@ -815,7 +819,7 @@
     <t>C*E.7</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.code</t>
+    <t>MedicationStatement.medication[x].coding.code</t>
   </si>
   <si>
     <t>Symbol in syntax defined by the system</t>
@@ -836,7 +840,7 @@
     <t>C*E.1</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.display</t>
+    <t>MedicationStatement.medication[x].coding.display</t>
   </si>
   <si>
     <t>Representation defined by the system</t>
@@ -857,7 +861,7 @@
     <t>C*E.2 - but note this is not well followed</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.coding.userSelected</t>
+    <t>MedicationStatement.medication[x].coding.userSelected</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
@@ -894,7 +898,7 @@
     <t>http://hl7.org.au/fhir/ValueSet/mims</t>
   </si>
   <si>
-    <t>MedicationStatement.medicationCodeableConcept.text</t>
+    <t>MedicationStatement.medication[x].text</t>
   </si>
   <si>
     <t>Plain text representation of the concept</t>
@@ -916,9 +920,6 @@
   </si>
   <si>
     <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medicationReference</t>
   </si>
   <si>
     <t>medicationReference</t>
@@ -1222,422 +1223,6 @@
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer
-</t>
-  </si>
-  <si>
-    <t>The order of the dosage instructions</t>
-  </si>
-  <si>
-    <t>Indicates the order in which the dosage instructions should be applied or interpreted.</t>
-  </si>
-  <si>
-    <t>If the sequence number of multiple Dosages is the same, then it is implied that the instructions are to be treated as concurrent.  If the sequence number is different, then the Dosages are intended to be sequential.</t>
-  </si>
-  <si>
-    <t>Dosage.sequence</t>
-  </si>
-  <si>
-    <t>.text</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.text</t>
-  </si>
-  <si>
-    <t>Free text dosage instructions e.g. SIG</t>
-  </si>
-  <si>
-    <t>Free text dosage instructions e.g. SIG.</t>
-  </si>
-  <si>
-    <t>Free text dosage instructions can be used for cases where the instructions are too complex to code.  The content of this attribute does not include the name or description of the medication. When coded instructions are present, the free text instructions may still be present for display to humans taking or administering the medication. It is expected that the text instructions will always be populated.  If the dosage.timing attribute is also populated, then the dosage.text should reflect the same information as the timing.</t>
-  </si>
-  <si>
-    <t>Dosage.text</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.additionalInstruction</t>
-  </si>
-  <si>
-    <t>Supplemental instruction - e.g. "with meals"</t>
-  </si>
-  <si>
-    <t>Supplemental instruction - e.g. "with meals".</t>
-  </si>
-  <si>
-    <t>Additional instruction such as "Swallow with plenty of water" which may or may not be coded.</t>
-  </si>
-  <si>
-    <t>A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:coding.system}
-</t>
-  </si>
-  <si>
-    <t>Dosage.additionalInstruction</t>
-  </si>
-  <si>
-    <t>snomedAdditionalInstruction</t>
-  </si>
-  <si>
-    <t>SNOMED CT Additional Instruction</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.patientInstruction</t>
-  </si>
-  <si>
-    <t>Patient or consumer oriented instructions</t>
-  </si>
-  <si>
-    <t>Instructions in terms that are understood by the patient or consumer.</t>
-  </si>
-  <si>
-    <t>Dosage.patientInstruction</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.timing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timing
-</t>
-  </si>
-  <si>
-    <t>When medication should be administered</t>
-  </si>
-  <si>
-    <t>When medication should be administered.</t>
-  </si>
-  <si>
-    <t>This attribute may not always be populated while the Dosage.text is expected to be populated.  If both are populated, then the Dosage.text should reflect the content of the Dosage.timing.</t>
-  </si>
-  <si>
-    <t>The timing schedule for giving the medication to the patient. The Schedule data type allows many different expressions. For example: "Every 8 hours"; "Three times a day"; "1/2 an hour before breakfast for 10 days from 23-Dec 2011:"; "15 Oct 2013, 17 Oct 2013 and 1 Nov 2013".  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
-  </si>
-  <si>
-    <t>Dosage.timing</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeeded[x]</t>
-  </si>
-  <si>
-    <t>boolean
-CodeableConcept</t>
-  </si>
-  <si>
-    <t>Take "as needed" (for x)</t>
-  </si>
-  <si>
-    <t>Indicates whether the Medication is only taken when needed within a specific dosing schedule (Boolean option), or it indicates the precondition for taking the Medication (CodeableConcept).</t>
-  </si>
-  <si>
-    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
-  </si>
-  <si>
-    <t>A coded concept identifying the precondition that should be met or evaluated prior to consuming or administering a medication dose.  For example "pain", "30 minutes prior to sexual intercourse", "on flare-up" etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
-  </si>
-  <si>
-    <t>Dosage.asNeeded[x]</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=PRCN].target[classCode=OBS, moodCode=EVN, code="as needed"].value=boolean or codable concept</t>
-  </si>
-  <si>
-    <t>asNeededCoding</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeeded[x].id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeeded[x].extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeededCodeableConcept</t>
-  </si>
-  <si>
-    <t>Coded Reason For Take "as needed"</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeededCodeableConcept.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeededCodeableConcept.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeededCodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>snomedFinding</t>
-  </si>
-  <si>
-    <t>Clinical Finding (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/clinical-finding-1</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeededCodeableConcept.text</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.site</t>
-  </si>
-  <si>
-    <t>Body site to administer to</t>
-  </si>
-  <si>
-    <t>Body site to administer to.</t>
-  </si>
-  <si>
-    <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [body-site-instance](http://hl7.org/fhir/STU3/extension-body-site-instance.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
-  </si>
-  <si>
-    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
-  </si>
-  <si>
-    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
-  </si>
-  <si>
-    <t>Dosage.site</t>
-  </si>
-  <si>
-    <t>.approachSiteCode</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.site.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.site.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.site.coding</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/body-site-1</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.site.text</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.route</t>
-  </si>
-  <si>
-    <t>How drug should enter body</t>
-  </si>
-  <si>
-    <t>How drug should enter body.</t>
-  </si>
-  <si>
-    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
-  </si>
-  <si>
-    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
-  </si>
-  <si>
-    <t>Dosage.route</t>
-  </si>
-  <si>
-    <t>.routeCode</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.route.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.route.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.route.coding</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.route.text</t>
-  </si>
-  <si>
-    <t>snomedRoute</t>
-  </si>
-  <si>
-    <t>Route of Administration (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/route-of-administration-1</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.method</t>
-  </si>
-  <si>
-    <t>Technique for administering medication</t>
-  </si>
-  <si>
-    <t>Technique for administering medication.</t>
-  </si>
-  <si>
-    <t>Terminologies used often pre-coordinate this term with the route and or form of administration.</t>
-  </si>
-  <si>
-    <t>A coded value indicating the method by which the medication is introduced into or onto the body. Most commonly used for injections.  For examples, Slow Push; Deep IV.</t>
-  </si>
-  <si>
-    <t>A coded concept describing the technique by which the medicine is administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
-  </si>
-  <si>
-    <t>Dosage.method</t>
-  </si>
-  <si>
-    <t>.doseQuantity</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.method.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.method.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.method.coding</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.method.text</t>
-  </si>
-  <si>
-    <t>snomedMethod</t>
-  </si>
-  <si>
-    <t>SNOMED CT Administration Method</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.dose[x]</t>
-  </si>
-  <si>
-    <t>Range
-Quantity {SimpleQuantity}</t>
-  </si>
-  <si>
-    <t>Amount of medication per dose</t>
-  </si>
-  <si>
-    <t>Amount of medication per dose.</t>
-  </si>
-  <si>
-    <t>Note that this specifies the quantity of the specified medication, not the quantity for each active ingredient(s). Each ingredient amount can be communicated in the Medication resource. For example, if one wants to communicate that a tablet was 375 mg, where the dose was one tablet, you can use the Medication resource to document that the tablet was comprised of 375 mg of drug XYZ. Alternatively if the dose was 375 mg, then you may only need to use the Medication resource to indicate this was a tablet. If the example were an IV such as dopamine and you wanted to communicate that 400mg of dopamine was mixed in 500 ml of some IV solution, then this would all be communicated in the Medication resource. If the administration is not intended to be instantaneous (rate is present or timing has a duration), this can be specified to convey the total amount to be administered over the period of time as indicated by the schedule e.g. 500 ml in dose, with timing used to convey that this should be done over 4 hours.</t>
-  </si>
-  <si>
-    <t>The amount of therapeutic or other substance given at one administration event.</t>
-  </si>
-  <si>
-    <t>Dosage.dose[x]</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.maxDosePerPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio
-</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per unit of time</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per unit of time.</t>
-  </si>
-  <si>
-    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example "2 tablets every 4 hours to a maximum of 8/day".</t>
-  </si>
-  <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
-  </si>
-  <si>
-    <t>Dosage.maxDosePerPeriod</t>
-  </si>
-  <si>
-    <t>.maxDoseQuantity</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.maxDosePerAdministration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per administration</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per administration.</t>
-  </si>
-  <si>
-    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example, a body surface area related dose with a maximum amount, such as 1.5 mg/m2 (maximum 2 mg) IV over 5 – 10 minutes would have doseQuantity of 1.5 mg/m2 and maxDosePerAdministration of 2 mg.</t>
-  </si>
-  <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
-  </si>
-  <si>
-    <t>Dosage.maxDosePerAdministration</t>
-  </si>
-  <si>
-    <t>not supported</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.maxDosePerLifetime</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per lifetime of the patient</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per lifetime of the patient.</t>
-  </si>
-  <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
-  </si>
-  <si>
-    <t>Dosage.maxDosePerLifetime</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.rate[x]</t>
-  </si>
-  <si>
-    <t>Ratio
-RangeQuantity {SimpleQuantity}</t>
-  </si>
-  <si>
-    <t>Amount of medication per unit of time</t>
-  </si>
-  <si>
-    <t>Amount of medication per unit of time.</t>
-  </si>
-  <si>
-    <t>It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.</t>
-  </si>
-  <si>
-    <t>Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
-  </si>
-  <si>
-    <t>Dosage.rate[x]</t>
-  </si>
-  <si>
-    <t>.rateQuantity</t>
   </si>
 </sst>
 </file>
@@ -1786,7 +1371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM111"/>
+  <dimension ref="A1:AM64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1795,8 +1380,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="74.31640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.14453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1818,10 +1403,10 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="192.3984375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="120.0234375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="74.1171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
@@ -3941,7 +3526,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>168</v>
       </c>
@@ -4013,16 +3598,14 @@
         <v>40</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>168</v>
@@ -4040,13 +3623,13 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
@@ -4054,17 +3637,17 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>51</v>
@@ -4082,7 +3665,7 @@
         <v>160</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>170</v>
@@ -4150,16 +3733,16 @@
         <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
@@ -4167,7 +3750,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4190,13 +3773,13 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4247,7 +3830,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -4265,7 +3848,7 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -4276,7 +3859,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4302,10 +3885,10 @@
         <v>96</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>120</v>
@@ -4349,7 +3932,7 @@
         <v>99</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>40</v>
@@ -4358,7 +3941,7 @@
         <v>100</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -4376,7 +3959,7 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -4387,7 +3970,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4410,19 +3993,19 @@
         <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -4459,7 +4042,7 @@
         <v>40</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
@@ -4469,7 +4052,7 @@
         <v>100</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4487,21 +4070,21 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>40</v>
@@ -4523,19 +4106,19 @@
         <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4564,7 +4147,7 @@
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -4582,7 +4165,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4600,21 +4183,21 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>40</v>
@@ -4636,19 +4219,19 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -4677,7 +4260,7 @@
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
@@ -4695,7 +4278,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4713,21 +4296,21 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>40</v>
@@ -4749,19 +4332,19 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4790,7 +4373,7 @@
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>40</v>
@@ -4808,7 +4391,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4826,18 +4409,18 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4860,13 +4443,13 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4917,7 +4500,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4935,7 +4518,7 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -4946,7 +4529,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5017,7 +4600,7 @@
         <v>99</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>40</v>
@@ -5026,7 +4609,7 @@
         <v>100</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -5055,10 +4638,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>40</v>
@@ -5080,13 +4663,13 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5137,7 +4720,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -5166,7 +4749,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5189,13 +4772,13 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5246,7 +4829,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -5264,7 +4847,7 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -5275,7 +4858,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5301,10 +4884,10 @@
         <v>96</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>120</v>
@@ -5348,7 +4931,7 @@
         <v>99</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>40</v>
@@ -5357,7 +4940,7 @@
         <v>100</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5375,7 +4958,7 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
@@ -5386,7 +4969,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5412,13 +4995,13 @@
         <v>64</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5426,7 +5009,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>40</v>
@@ -5468,7 +5051,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>51</v>
@@ -5497,17 +5080,15 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="B34" t="s" s="2">
         <v>229</v>
       </c>
+      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>51</v>
@@ -5522,7 +5103,7 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>230</v>
@@ -5537,49 +5118,47 @@
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AB34" s="2"/>
+      <c r="AC34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5608,15 +5187,17 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="C35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>51</v>
@@ -5628,29 +5209,25 @@
         <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>40</v>
@@ -5668,13 +5245,13 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
@@ -5692,7 +5269,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5710,18 +5287,18 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>242</v>
+        <v>94</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>243</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5744,18 +5321,20 @@
         <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>183</v>
+        <v>64</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>40</v>
       </c>
@@ -5803,7 +5382,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5821,18 +5400,18 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5855,18 +5434,18 @@
         <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>70</v>
+        <v>184</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5914,7 +5493,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5932,18 +5511,18 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5966,17 +5545,17 @@
         <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>183</v>
+        <v>70</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -6025,7 +5604,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -6043,18 +5622,18 @@
         <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6077,19 +5656,17 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>266</v>
+        <v>184</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -6138,7 +5715,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -6156,22 +5733,20 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>40</v>
       </c>
@@ -6192,19 +5767,19 @@
         <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>194</v>
+        <v>267</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>196</v>
+        <v>269</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>197</v>
+        <v>270</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>198</v>
+        <v>271</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -6229,11 +5804,13 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X40" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y40" t="s" s="2">
-        <v>276</v>
+        <v>40</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
@@ -6251,13 +5828,13 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>40</v>
@@ -6269,20 +5846,22 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>201</v>
+        <v>273</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>202</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="C41" t="s" s="2">
         <v>40</v>
       </c>
@@ -6303,19 +5882,19 @@
         <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>280</v>
+        <v>198</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>281</v>
+        <v>199</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -6340,13 +5919,11 @@
         <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
-        <v>40</v>
+        <v>277</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>40</v>
@@ -6364,13 +5941,13 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>40</v>
@@ -6382,28 +5959,26 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>283</v>
+        <v>202</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>284</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>51</v>
@@ -6418,18 +5993,20 @@
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>287</v>
+        <v>184</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
       </c>
@@ -6477,10 +6054,10 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>168</v>
+        <v>283</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>51</v>
@@ -6492,23 +6069,25 @@
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>176</v>
+        <v>284</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>40</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="C43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6529,16 +6108,16 @@
         <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>293</v>
+        <v>171</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6588,10 +6167,10 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>289</v>
+        <v>168</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>51</v>
@@ -6603,13 +6182,13 @@
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>294</v>
+        <v>177</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>295</v>
+        <v>178</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>296</v>
+        <v>179</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
@@ -6617,7 +6196,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6640,15 +6219,17 @@
         <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
@@ -6697,7 +6278,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6712,21 +6293,21 @@
         <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>40</v>
+        <v>294</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6740,22 +6321,22 @@
         <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6806,7 +6387,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6824,10 +6405,10 @@
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -6835,7 +6416,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6843,7 +6424,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>51</v>
@@ -6855,16 +6436,16 @@
         <v>40</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6915,10 +6496,10 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>51</v>
@@ -6930,21 +6511,21 @@
         <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>313</v>
+        <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>316</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6952,32 +6533,30 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>40</v>
@@ -7026,36 +6605,36 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7063,31 +6642,31 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>70</v>
+        <v>318</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7113,13 +6692,13 @@
         <v>40</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>327</v>
+        <v>40</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>328</v>
+        <v>40</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>40</v>
@@ -7137,36 +6716,36 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" hidden="true">
-      <c r="A49" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7174,30 +6753,32 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -7222,13 +6803,13 @@
         <v>40</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>40</v>
@@ -7246,25 +6827,25 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>336</v>
+        <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>40</v>
+        <v>329</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
@@ -7275,7 +6856,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7286,7 +6867,7 @@
         <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>40</v>
@@ -7298,13 +6879,13 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>184</v>
+        <v>332</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>185</v>
+        <v>333</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7331,13 +6912,13 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>40</v>
+        <v>334</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>40</v>
+        <v>335</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>40</v>
@@ -7355,16 +6936,16 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>186</v>
+        <v>331</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>40</v>
+        <v>336</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>40</v>
@@ -7373,7 +6954,7 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>187</v>
+        <v>337</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -7384,18 +6965,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>40</v>
@@ -7407,17 +6988,15 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -7454,25 +7033,25 @@
         <v>40</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>40</v>
@@ -7484,7 +7063,7 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
@@ -7495,11 +7074,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7515,23 +7094,21 @@
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>194</v>
+        <v>96</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>341</v>
+        <v>190</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7567,9 +7144,11 @@
         <v>40</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AB52" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="AC52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7577,7 +7156,7 @@
         <v>100</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7595,22 +7174,20 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>202</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="B53" t="s" s="2">
-        <v>343</v>
-      </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7619,7 +7196,7 @@
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
@@ -7631,19 +7208,19 @@
         <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>40</v>
@@ -7668,29 +7245,29 @@
         <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X53" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y53" t="s" s="2">
-        <v>345</v>
+        <v>40</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="AB53" s="2"/>
       <c r="AC53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7708,20 +7285,22 @@
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="C54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7742,19 +7321,19 @@
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>280</v>
+        <v>198</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>281</v>
+        <v>199</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7779,13 +7358,11 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>40</v>
+        <v>345</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>40</v>
@@ -7803,13 +7380,13 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
@@ -7821,18 +7398,18 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>283</v>
+        <v>202</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>284</v>
+        <v>203</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7846,27 +7423,29 @@
         <v>51</v>
       </c>
       <c r="G55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>348</v>
+        <v>279</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>349</v>
+        <v>280</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7890,13 +7469,13 @@
         <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>351</v>
+        <v>40</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>352</v>
+        <v>40</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>40</v>
@@ -7914,36 +7493,36 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7957,7 +7536,7 @@
         <v>51</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>40</v>
@@ -7966,15 +7545,17 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>184</v>
+        <v>348</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>40</v>
@@ -7999,13 +7580,13 @@
         <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>40</v>
+        <v>351</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>40</v>
+        <v>352</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>40</v>
@@ -8023,13 +7604,13 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>186</v>
+        <v>347</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>40</v>
@@ -8038,13 +7619,13 @@
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>40</v>
+        <v>353</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>187</v>
+        <v>354</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>40</v>
+        <v>355</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>40</v>
@@ -8052,18 +7633,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>40</v>
@@ -8075,17 +7656,15 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>40</v>
@@ -8122,25 +7701,25 @@
         <v>40</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>40</v>
@@ -8152,7 +7731,7 @@
         <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
@@ -8163,11 +7742,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8183,23 +7762,21 @@
         <v>40</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>194</v>
+        <v>96</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>341</v>
+        <v>190</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>40</v>
       </c>
@@ -8235,9 +7812,11 @@
         <v>40</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AB58" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="AC58" t="s" s="2">
         <v>40</v>
       </c>
@@ -8245,7 +7824,7 @@
         <v>100</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -8263,22 +7842,20 @@
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>202</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="B59" t="s" s="2">
-        <v>359</v>
-      </c>
+      <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
         <v>40</v>
       </c>
@@ -8287,7 +7864,7 @@
         <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>40</v>
@@ -8299,19 +7876,19 @@
         <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
@@ -8336,29 +7913,29 @@
         <v>40</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X59" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y59" t="s" s="2">
-        <v>361</v>
+        <v>40</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="AB59" s="2"/>
       <c r="AC59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8376,20 +7953,22 @@
         <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B60" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="C60" t="s" s="2">
         <v>40</v>
       </c>
@@ -8410,19 +7989,19 @@
         <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>280</v>
+        <v>198</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>281</v>
+        <v>199</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -8447,13 +8026,11 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="X60" s="2"/>
       <c r="Y60" t="s" s="2">
-        <v>40</v>
+        <v>361</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
@@ -8471,13 +8048,13 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>40</v>
@@ -8489,18 +8066,18 @@
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>283</v>
+        <v>202</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>284</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8511,7 +8088,7 @@
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
@@ -8520,21 +8097,23 @@
         <v>40</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>364</v>
+        <v>184</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>365</v>
+        <v>279</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>366</v>
+        <v>280</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>40</v>
       </c>
@@ -8582,36 +8161,36 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8625,7 +8204,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>40</v>
@@ -8634,15 +8213,17 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -8691,7 +8272,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8706,13 +8287,13 @@
         <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>40</v>
+        <v>355</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>40</v>
@@ -8720,7 +8301,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8728,10 +8309,10 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>52</v>
@@ -8743,17 +8324,15 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>40</v>
@@ -8802,7 +8381,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8811,16 +8390,16 @@
         <v>42</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>381</v>
+        <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>40</v>
+        <v>374</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
@@ -8829,9 +8408,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8839,13 +8418,13 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>40</v>
@@ -8854,15 +8433,17 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>183</v>
+        <v>377</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>184</v>
+        <v>378</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>40</v>
@@ -8911,5266 +8492,35 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>186</v>
+        <v>376</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>40</v>
+        <v>381</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>187</v>
+        <v>382</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AB68" s="2"/>
-      <c r="AC68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X69" s="2"/>
-      <c r="Y69" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE75" s="2"/>
-      <c r="AF75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG75" s="2"/>
-      <c r="AH75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AB79" s="2"/>
-      <c r="AC79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X80" s="2"/>
-      <c r="Y80" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X85" s="2"/>
-      <c r="Y85" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AB90" s="2"/>
-      <c r="AC90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AB94" s="2"/>
-      <c r="AC94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X95" s="2"/>
-      <c r="Y95" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AB100" s="2"/>
-      <c r="AC100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AB104" s="2"/>
-      <c r="AC104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="C105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X105" s="2"/>
-      <c r="Y105" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F108" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P108" s="2"/>
-      <c r="Q108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F109" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P109" s="2"/>
-      <c r="Q109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F110" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M110" s="2"/>
-      <c r="N110" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P110" s="2"/>
-      <c r="Q110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F111" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P111" s="2"/>
-      <c r="Q111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM111" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM111">
+  <autoFilter ref="A1:AM64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14180,7 +8530,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI110">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedHealthSummary/medicationstatement-summary-1.xlsx
+++ b/output/SharedHealthSummary/medicationstatement-summary-1.xlsx
@@ -167,7 +167,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}mst-1:Reason not taken is only permitted if Taken is No {reasonNotTaken.exists().not() or (taken = 'n')}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}mst-1:Reason not taken is only permitted if Taken is No {reasonNotTaken.exists().not() or (taken = 'n')}inv-dh-mst-02:If present, an information source shall at least have a reference, an identifier or a display {informationSource.exists() implies informationSource.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}inv-dh-mst-03:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-mst-01:The dosage shall at least have text or patient instructions {dosage.text.exists() or dosage.patientInstruction.exists()}</t>
   </si>
   <si>
     <t>..Event</t>
@@ -1218,8 +1218,8 @@
     <t>The dates included in the dosage on a Medication Statement reflect the dates for a given dose.  For example, "from November 1, 2016 to November 3, 2016, take one tablet daily and from November 4, 2016 to November 7, 2016, take two tablets daily."  It is expected that this specificity may only be populated where the patient brings in their labeled container or where the Medication Statement is derived from a MedicationRequest.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-inv-dh-mst-01:The dosage shall at least have text or patient instructions {MedicationStatement.dosage.text.exists() or MedicationStatement.dosage.patientInstruction.exists()}</t>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>

--- a/output/SharedHealthSummary/medicationstatement-summary-1.xlsx
+++ b/output/SharedHealthSummary/medicationstatement-summary-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$70</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="351">
   <si>
     <t>Path</t>
   </si>
@@ -391,7 +391,7 @@
     <t>Medication Generic Drug Name</t>
   </si>
   <si>
-    <t xml:space="preserve">The generic medication text name for an associated medication, this may not be the same as the medicationCodeableConcept medication (prescribed, dispensed or stated) but may be used to provide an additional or equivalent drug name that is a generic medication concept. </t>
+    <t>The generic medication text name for an associated medication, this may not be the same as the medicationCodeableConcept medication (prescribed, dispensed or stated) but may be used to provide an additional or equivalent drug name that is a generic medication concept.</t>
   </si>
   <si>
     <t>MedicationStatement.modifierExtension</t>
@@ -600,10 +600,6 @@
     <t>Coded Medication</t>
   </si>
   <si>
-    <t>inv-amt-tpuu:AMT TPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpuu-codes'}
-inv-amt-tpp:AMT TPU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpp-codes'}inv-amt-tp:AMT TP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tp-codes'}inv-amt-mpuu:AMT MPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpuu-codes'}inv-amt-mpp:AMT MPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpp-codes'}inv-amt-mp:AMT MP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mp-codes'}inv-amt-ctpp:AMT CTPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-ctpp-codes'}</t>
-  </si>
-  <si>
     <t>MedicationStatement.medication[x].id</t>
   </si>
   <si>
@@ -657,8 +653,8 @@
     <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
   </si>
   <si>
-    <t>value:system}
-value:code}</t>
+    <t xml:space="preserve">value:system}
+</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -682,6 +678,130 @@
     <t>http://hl7.org.au/fhir/ValueSet/pbs-item</t>
   </si>
   <si>
+    <t>MedicationStatement.medication[x].coding.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://pbs.gov.au/code/item</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
     <t>gtin</t>
   </si>
   <si>
@@ -701,12 +821,6 @@
   </si>
   <si>
     <t>https://healthterminologies.gov.au/fhir/ValueSet/australian-medication-1</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].coding.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].coding.extension</t>
   </si>
   <si>
     <t>medicationClass</t>
@@ -722,171 +836,7 @@
     <t>General category of coding to allow usage of codes to be distinguished from the same CodeSystem</t>
   </si>
   <si>
-    <t>MedicationStatement.medication[x].coding.extension.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].coding.extension.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].coding.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org.au/fhir/StructureDefinition/medication-type</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].coding.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>valueCoding</t>
-  </si>
-  <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://hl7.org.au/fhir/CodeSystem/medication-type"/&gt;
-  &lt;code value="BPG"/&gt;
-  &lt;display value="Branded package with no container"/&gt;
-&lt;/valueCoding&gt;</t>
-  </si>
-  <si>
-    <t>Medication Type</t>
-  </si>
-  <si>
-    <t>http://hl7.org.au/fhir/ValueSet/medication-type</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medication[x].coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
+    <t>http://snomed.info/sct</t>
   </si>
   <si>
     <t>mimsPackage</t>
@@ -896,6 +846,9 @@
   </si>
   <si>
     <t>http://hl7.org.au/fhir/ValueSet/mims</t>
+  </si>
+  <si>
+    <t>http://www.mims.com.au/codes</t>
   </si>
   <si>
     <t>MedicationStatement.medication[x].text</t>
@@ -1072,10 +1025,7 @@
     <t>A code indicating why the medication was not taken.</t>
   </si>
   <si>
-    <t>A coded concept indicating the reason why the medication was not taken</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/reason-medication-not-taken-codes</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/medication-reason-not-taken-1</t>
   </si>
   <si>
     <t xml:space="preserve">mst-1
@@ -1085,34 +1035,6 @@
     <t>.outboundRelationship[typeCode=RSON]/target[classCode=OBS,moodCode=EVN, code="reason not taken"].value</t>
   </si>
   <si>
-    <t>MedicationStatement.reasonNotTaken.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.reasonNotTaken.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.reasonNotTaken.coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>snomedReasonNotTaken</t>
-  </si>
-  <si>
-    <t>Reason Not Taken (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/medication-reason-not-taken-1</t>
-  </si>
-  <si>
-    <t>MedicationStatement.reasonNotTaken.text</t>
-  </si>
-  <si>
     <t>MedicationStatement.reasonCode</t>
   </si>
   <si>
@@ -1125,10 +1047,7 @@
     <t>This could be a diagnosis code. If a full condition record exists or additional detail is needed, use reasonForUseReference.</t>
   </si>
   <si>
-    <t>A coded concept identifying why the medication is being taken.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/medication-reason-taken-1</t>
   </si>
   <si>
     <t>…reasoneCodeableConcept</t>
@@ -1138,27 +1057,6 @@
   </si>
   <si>
     <t>why</t>
-  </si>
-  <si>
-    <t>MedicationStatement.reasonCode.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.reasonCode.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.reasonCode.coding</t>
-  </si>
-  <si>
-    <t>snomedReasonCode</t>
-  </si>
-  <si>
-    <t>Reason For Medication (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/medication-reason-taken-1</t>
-  </si>
-  <si>
-    <t>MedicationStatement.reasonCode.text</t>
   </si>
   <si>
     <t>MedicationStatement.reasonReference</t>
@@ -1371,7 +1269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM64"/>
+  <dimension ref="A1:AM70"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1380,7 +1278,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.05859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="26.890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2437,7 +2335,7 @@
         <v>41</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>40</v>
@@ -2548,7 +2446,7 @@
         <v>41</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>40</v>
@@ -2659,7 +2557,7 @@
         <v>41</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>40</v>
@@ -3733,7 +3631,7 @@
         <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>177</v>
@@ -3750,7 +3648,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3773,13 +3671,13 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3830,25 +3728,25 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -3859,7 +3757,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3885,10 +3783,10 @@
         <v>96</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>120</v>
@@ -3932,7 +3830,7 @@
         <v>99</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>40</v>
@@ -3941,7 +3839,7 @@
         <v>100</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3959,7 +3857,7 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -3970,7 +3868,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3993,19 +3891,19 @@
         <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -4042,7 +3940,7 @@
         <v>40</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
@@ -4052,7 +3950,7 @@
         <v>100</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4070,21 +3968,21 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>203</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>40</v>
@@ -4106,19 +4004,19 @@
         <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="M25" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4143,11 +4041,11 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -4165,7 +4063,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4183,22 +4081,20 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>203</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>40</v>
       </c>
@@ -4207,7 +4103,7 @@
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>40</v>
@@ -4216,23 +4112,19 @@
         <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>40</v>
       </c>
@@ -4256,11 +4148,13 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X26" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y26" t="s" s="2">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
@@ -4278,13 +4172,13 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>40</v>
@@ -4296,24 +4190,22 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>203</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4329,23 +4221,21 @@
         <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>195</v>
+        <v>96</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>40</v>
       </c>
@@ -4369,29 +4259,31 @@
         <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X27" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y27" t="s" s="2">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4409,18 +4301,18 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>203</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4428,7 +4320,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>51</v>
@@ -4440,25 +4332,29 @@
         <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>184</v>
+        <v>64</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>40</v>
@@ -4500,7 +4396,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4518,18 +4414,18 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>40</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4540,7 +4436,7 @@
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>40</v>
@@ -4549,18 +4445,20 @@
         <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>97</v>
+        <v>219</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4597,25 +4495,25 @@
         <v>40</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>40</v>
@@ -4627,22 +4525,20 @@
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>40</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4660,19 +4556,21 @@
         <v>40</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>218</v>
+        <v>70</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4720,13 +4618,13 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>40</v>
@@ -4738,18 +4636,18 @@
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>40</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4769,19 +4667,21 @@
         <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="N31" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
       </c>
@@ -4829,7 +4729,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4847,29 +4747,29 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>40</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>40</v>
@@ -4878,21 +4778,23 @@
         <v>40</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4928,25 +4830,25 @@
         <v>40</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>40</v>
@@ -4958,29 +4860,31 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>40</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="C33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>40</v>
@@ -4989,27 +4893,29 @@
         <v>40</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>64</v>
+        <v>194</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>40</v>
@@ -5027,13 +4933,11 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>40</v>
+        <v>251</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
@@ -5051,13 +4955,13 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
@@ -5069,18 +4973,18 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5103,13 +5007,13 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5148,17 +5052,19 @@
         <v>40</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AB34" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5176,7 +5082,7 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
@@ -5187,20 +5093,18 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>40</v>
@@ -5212,22 +5116,24 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>195</v>
+        <v>96</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>40</v>
@@ -5245,37 +5151,37 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
@@ -5287,7 +5193,7 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
@@ -5298,7 +5204,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5306,7 +5212,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>51</v>
@@ -5324,23 +5230,23 @@
         <v>64</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>40</v>
@@ -5382,7 +5288,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5400,18 +5306,18 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>244</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5434,16 +5340,16 @@
         <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5493,7 +5399,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5511,18 +5417,18 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5548,14 +5454,14 @@
         <v>70</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5604,7 +5510,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5622,18 +5528,18 @@
         <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>258</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5656,17 +5562,17 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5715,7 +5621,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5733,18 +5639,18 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>265</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5767,19 +5673,19 @@
         <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -5828,7 +5734,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5846,21 +5752,21 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>274</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>40</v>
@@ -5870,7 +5776,7 @@
         <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>40</v>
@@ -5882,19 +5788,19 @@
         <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -5919,11 +5825,11 @@
         <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>40</v>
@@ -5941,7 +5847,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5959,18 +5865,18 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>203</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5990,23 +5896,19 @@
         <v>40</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K42" t="s" s="2">
-        <v>279</v>
-      </c>
       <c r="L42" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>40</v>
       </c>
@@ -6054,7 +5956,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>283</v>
+        <v>186</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6072,22 +5974,20 @@
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>284</v>
+        <v>187</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>285</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6096,7 +5996,7 @@
         <v>41</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>40</v>
@@ -6105,20 +6005,18 @@
         <v>40</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>287</v>
+        <v>96</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>288</v>
+        <v>97</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -6155,25 +6053,25 @@
         <v>40</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>40</v>
@@ -6182,13 +6080,13 @@
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
@@ -6196,9 +6094,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="B44" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="C44" t="s" s="2">
         <v>40</v>
       </c>
@@ -6216,20 +6116,18 @@
         <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
@@ -6278,13 +6176,13 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>289</v>
+        <v>192</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>40</v>
@@ -6293,13 +6191,13 @@
         <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>294</v>
+        <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>295</v>
+        <v>40</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>296</v>
+        <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>40</v>
@@ -6307,7 +6205,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>297</v>
+        <v>209</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6315,7 +6213,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>51</v>
@@ -6330,22 +6228,26 @@
         <v>52</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>298</v>
+        <v>64</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>299</v>
+        <v>210</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>40</v>
@@ -6387,7 +6289,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>297</v>
+        <v>215</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6405,18 +6307,18 @@
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>302</v>
+        <v>40</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>40</v>
+        <v>217</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6430,24 +6332,26 @@
         <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J46" t="s" s="2">
-        <v>304</v>
+        <v>183</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>305</v>
+        <v>219</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
@@ -6496,7 +6400,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>303</v>
+        <v>222</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6514,18 +6418,18 @@
         <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>307</v>
+        <v>223</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>308</v>
+        <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>40</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>309</v>
+        <v>225</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6533,13 +6437,13 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>40</v>
@@ -6548,16 +6452,18 @@
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>310</v>
+        <v>70</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>312</v>
+        <v>227</v>
       </c>
       <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6605,10 +6511,10 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>309</v>
+        <v>229</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>51</v>
@@ -6620,21 +6526,21 @@
         <v>40</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>313</v>
+        <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>314</v>
+        <v>230</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>315</v>
+        <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>316</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6645,7 +6551,7 @@
         <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>40</v>
@@ -6654,21 +6560,21 @@
         <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>318</v>
+        <v>183</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>319</v>
+        <v>233</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>40</v>
       </c>
@@ -6716,13 +6622,13 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>317</v>
+        <v>236</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>40</v>
@@ -6734,18 +6640,18 @@
         <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>322</v>
+        <v>237</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>40</v>
+        <v>238</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>323</v>
+        <v>239</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6753,33 +6659,35 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>325</v>
+        <v>242</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>40</v>
       </c>
@@ -6803,13 +6711,13 @@
         <v>40</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>327</v>
+        <v>40</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>328</v>
+        <v>40</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>40</v>
@@ -6827,10 +6735,10 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>323</v>
+        <v>245</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>51</v>
@@ -6842,23 +6750,25 @@
         <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>329</v>
+        <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>330</v>
+        <v>246</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>40</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="C50" t="s" s="2">
         <v>40</v>
       </c>
@@ -6867,7 +6777,7 @@
         <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>40</v>
@@ -6876,19 +6786,23 @@
         <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>332</v>
+        <v>261</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>40</v>
       </c>
@@ -6912,13 +6826,11 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="X50" s="2"/>
       <c r="Y50" t="s" s="2">
-        <v>335</v>
+        <v>262</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>40</v>
@@ -6936,7 +6848,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>331</v>
+        <v>200</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6945,7 +6857,7 @@
         <v>42</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>336</v>
+        <v>40</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>40</v>
@@ -6954,18 +6866,18 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>337</v>
+        <v>201</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>338</v>
+        <v>207</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6988,13 +6900,13 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7045,25 +6957,25 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
@@ -7074,7 +6986,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>339</v>
+        <v>208</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7100,10 +7012,10 @@
         <v>96</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>120</v>
@@ -7147,7 +7059,7 @@
         <v>99</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>40</v>
@@ -7156,7 +7068,7 @@
         <v>100</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7174,7 +7086,7 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
@@ -7185,7 +7097,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>340</v>
+        <v>209</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7193,10 +7105,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
@@ -7208,26 +7120,26 @@
         <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>195</v>
+        <v>64</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>341</v>
+        <v>210</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>40</v>
+        <v>263</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>40</v>
@@ -7257,23 +7169,25 @@
         <v>40</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AB53" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>40</v>
@@ -7285,22 +7199,20 @@
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7321,20 +7233,18 @@
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>344</v>
+        <v>219</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7358,11 +7268,13 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X54" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y54" t="s" s="2">
-        <v>345</v>
+        <v>40</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>40</v>
@@ -7380,13 +7292,13 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
@@ -7398,18 +7310,18 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>203</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>346</v>
+        <v>225</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7432,19 +7344,17 @@
         <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>184</v>
+        <v>70</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>279</v>
+        <v>226</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>40</v>
@@ -7493,7 +7403,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>283</v>
+        <v>229</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7511,18 +7421,18 @@
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>285</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>347</v>
+        <v>232</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7536,27 +7446,27 @@
         <v>51</v>
       </c>
       <c r="G56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J56" t="s" s="2">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>348</v>
+        <v>233</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>40</v>
       </c>
@@ -7580,13 +7490,13 @@
         <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>351</v>
+        <v>40</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>352</v>
+        <v>40</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>40</v>
@@ -7604,13 +7514,13 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>347</v>
+        <v>236</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>40</v>
@@ -7619,21 +7529,21 @@
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>353</v>
+        <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>354</v>
+        <v>237</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>355</v>
+        <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>40</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>356</v>
+        <v>239</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7653,19 +7563,23 @@
         <v>40</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>184</v>
+        <v>240</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>185</v>
+        <v>241</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
       </c>
@@ -7713,7 +7627,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>187</v>
+        <v>245</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7731,29 +7645,29 @@
         <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>40</v>
+        <v>247</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>357</v>
+        <v>264</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>40</v>
@@ -7762,21 +7676,23 @@
         <v>40</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>190</v>
+        <v>265</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>191</v>
+        <v>266</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
       </c>
@@ -7812,25 +7728,25 @@
         <v>40</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>193</v>
+        <v>269</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>40</v>
@@ -7842,20 +7758,22 @@
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>40</v>
+        <v>271</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="B59" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="C59" t="s" s="2">
         <v>40</v>
       </c>
@@ -7864,7 +7782,7 @@
         <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>40</v>
@@ -7876,20 +7794,18 @@
         <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>195</v>
+        <v>273</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>341</v>
+        <v>274</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>40</v>
       </c>
@@ -7925,23 +7841,25 @@
         <v>40</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AB59" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>40</v>
@@ -7950,25 +7868,23 @@
         <v>40</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>203</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
         <v>40</v>
       </c>
@@ -7989,20 +7905,18 @@
         <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>195</v>
+        <v>276</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>360</v>
+        <v>277</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>197</v>
+        <v>278</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>40</v>
       </c>
@@ -8026,11 +7940,13 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X60" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y60" t="s" s="2">
-        <v>361</v>
+        <v>40</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
@@ -8048,13 +7964,13 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>201</v>
+        <v>275</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>40</v>
@@ -8063,21 +7979,21 @@
         <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>202</v>
+        <v>281</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>40</v>
+        <v>282</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>203</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>362</v>
+        <v>283</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8100,20 +8016,16 @@
         <v>52</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>184</v>
+        <v>284</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>40</v>
       </c>
@@ -8179,18 +8091,18 @@
         <v>40</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>40</v>
+        <v>288</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>285</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>363</v>
+        <v>289</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8201,10 +8113,10 @@
         <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>40</v>
@@ -8213,17 +8125,15 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>364</v>
+        <v>290</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>365</v>
+        <v>291</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -8272,13 +8182,13 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>363</v>
+        <v>289</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>40</v>
@@ -8287,13 +8197,13 @@
         <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>368</v>
+        <v>40</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>369</v>
+        <v>293</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>355</v>
+        <v>294</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>40</v>
@@ -8301,7 +8211,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>370</v>
+        <v>295</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8309,10 +8219,10 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>52</v>
@@ -8321,16 +8231,16 @@
         <v>40</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>371</v>
+        <v>296</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>372</v>
+        <v>297</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>373</v>
+        <v>298</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8381,13 +8291,13 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>370</v>
+        <v>295</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>40</v>
@@ -8396,21 +8306,21 @@
         <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>374</v>
+        <v>299</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>40</v>
+        <v>302</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8418,13 +8328,13 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>40</v>
@@ -8433,16 +8343,16 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>378</v>
+        <v>305</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>379</v>
+        <v>306</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>380</v>
+        <v>307</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8492,7 +8402,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8501,26 +8411,684 @@
         <v>42</v>
       </c>
       <c r="AH64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="X66" s="2"/>
+      <c r="Y66" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="X67" s="2"/>
+      <c r="Y67" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH70" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AI64" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AI70" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM64">
+  <autoFilter ref="A1:AM70">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8530,7 +9098,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI63">
+  <conditionalFormatting sqref="A2:AI69">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
